--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058AF83-4134-48D3-B5A2-000C8DAE31E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB612D46-6352-4273-92FD-4FDF82ADCA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
   <sheets>
     <sheet name="All-Time" sheetId="1" r:id="rId1"/>
@@ -5398,154 +5398,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <gradientFill degree="180">
@@ -5583,76 +5436,46 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFED7D31"/>
-          </stop>
-        </gradientFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFED7D31"/>
-          </stop>
-        </gradientFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -5699,6 +5522,58 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
@@ -5709,50 +5584,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFED7D31"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <b/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5775,24 +5651,40 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5808,40 +5700,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:F866" headerRowDxfId="40" dataDxfId="0" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:F866" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Normal">
   <autoFilter ref="A1:F866" xr:uid="{3D54B4E7-8762-4810-A5DE-0B8259341304}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F866">
+    <sortCondition sortBy="cellColor" ref="D2:D866" dxfId="26"/>
+    <sortCondition sortBy="cellColor" ref="D2:D866" dxfId="25"/>
     <sortCondition sortBy="cellColor" ref="D2:D866" dxfId="24"/>
-    <sortCondition sortBy="cellColor" ref="D2:D866" dxfId="23"/>
-    <sortCondition sortBy="cellColor" ref="D2:D866" dxfId="22"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="28" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="3" totalsRowDxfId="29" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="2" totalsRowDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="31" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:F351" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:F351" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Output">
   <autoFilter ref="A1:F351" xr:uid="{897C7AA5-23D0-4636-B8BC-E6C0B2676166}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F351">
-    <sortCondition sortBy="cellColor" ref="D2:D351" dxfId="21"/>
-    <sortCondition sortBy="cellColor" ref="D2:D351" dxfId="20"/>
-    <sortCondition sortBy="cellColor" ref="D2:D351" dxfId="19"/>
+    <sortCondition descending="1" ref="E1:E351"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="37" dataCellStyle="Output"/>
-    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="36" dataCellStyle="Output"/>
-    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="35" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="34" dataCellStyle="Output"/>
-    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="33" dataCellStyle="Output"/>
-    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="32" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="8" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="7" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="6" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="5" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="4" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="3" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6118,7 +6008,7 @@
   </sheetPr>
   <dimension ref="A1:F866"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="96" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -23508,13 +23398,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23625,17 +23515,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912AA92-8764-4A3E-8065-7F3A5E9C4540}">
   <dimension ref="A1:F351"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23661,2722 +23551,2722 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>359</v>
+        <v>843</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7">
-        <v>0.70799999999999996</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6">
-        <v>0.89237917107912101</v>
+        <v>1.21383910047555</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>809</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7">
-        <v>0.45600000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>0.78182301728361403</v>
+        <v>1.1348635577072801</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>346</v>
+        <v>946</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="C4" s="7">
-        <v>0.70899999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0.36854714859271598</v>
+        <v>1.1029586218338101</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>86</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>299</v>
+        <v>1438</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>111</v>
+        <v>527</v>
       </c>
       <c r="C5" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>0.34287878153878598</v>
+        <v>1.02398307906553</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>112</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>914</v>
+        <v>1110</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>829</v>
+        <v>135</v>
       </c>
       <c r="C6" s="7">
-        <v>0.35099999999999998</v>
+        <v>0.67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>0.23732818630616601</v>
+        <v>0.94500753629726297</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>830</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>840</v>
+        <v>727</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>555</v>
+        <v>195</v>
       </c>
       <c r="C7" s="7">
-        <v>0.373</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" s="6">
-        <v>0.18533360726394599</v>
+        <v>0.90070294990503397</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>556</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>844</v>
+        <v>359</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C8" s="7">
-        <v>0.46400000000000002</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6">
-        <v>0.156569060691539</v>
+        <v>0.89237917107912101</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>276</v>
+        <v>846</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C9" s="7">
-        <v>0.38300000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>0.14242034004176801</v>
+        <v>0.813403628310847</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1077</v>
+        <v>265</v>
       </c>
       <c r="C10" s="7">
-        <v>0.57299999999999995</v>
+        <v>0.437</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>9.2712560414588099E-2</v>
+        <v>0.79349092803909904</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1078</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>419</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7">
-        <v>0.46500000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6">
-        <v>8.7698128141627404E-2</v>
+        <v>0.78182301728361403</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>420</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>66</v>
+        <v>1423</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
       <c r="C12" s="7">
-        <v>0.43</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>7.8520934073776194E-2</v>
+        <v>0.77340236034731602</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>92</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>830</v>
+        <v>1153</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>955</v>
+        <v>141</v>
       </c>
       <c r="C13" s="7">
-        <v>0.496</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>7.7759364699133998E-2</v>
+        <v>0.69749636417844696</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>956</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>1237</v>
+        <v>642</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1225</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7">
-        <v>0.69699999999999995</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14" s="6">
-        <v>7.536521894921E-2</v>
+        <v>0.640278944907134</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>1226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>1029</v>
+        <v>752</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1387</v>
+        <v>421</v>
       </c>
       <c r="C15" s="7">
-        <v>0.56100000000000005</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>6.37158143861076E-2</v>
+        <v>0.56130340213885999</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>1388</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>226</v>
+        <v>1296</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>287</v>
+        <v>841</v>
       </c>
       <c r="C16" s="7">
-        <v>0.65</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6">
-        <v>4.8513959223607503E-2</v>
+        <v>0.51749787537505798</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>288</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>205</v>
+        <v>1368</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>185</v>
+        <v>933</v>
       </c>
       <c r="C17" s="7">
-        <v>0.39800000000000002</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6">
-        <v>4.5397866271290499E-2</v>
+        <v>0.51189457095489499</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>186</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>243</v>
+        <v>1477</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>967</v>
+        <v>929</v>
       </c>
       <c r="C18" s="7">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>4.0780370344927999E-2</v>
+        <v>0.503366532914857</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>968</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>686</v>
+        <v>951</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C19" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6">
-        <v>3.9845908547199597E-2</v>
+        <v>0.49457139594259403</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>682</v>
+        <v>1376</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1457</v>
+        <v>563</v>
       </c>
       <c r="C20" s="7">
-        <v>0.63700000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>3.8727007885292097E-2</v>
+        <v>0.49039358494878399</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1458</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>168</v>
+        <v>1088</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>439</v>
+        <v>145</v>
       </c>
       <c r="C21" s="7">
-        <v>0.311</v>
+        <v>0.44</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6">
-        <v>3.8614836127779502E-2</v>
+        <v>0.48938529252812102</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>1021</v>
+        <v>1293</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1209</v>
+        <v>601</v>
       </c>
       <c r="C22" s="7">
-        <v>0.78</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E22" s="6">
-        <v>3.6604330562512298E-2</v>
+        <v>0.44342587034738701</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1210</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>198</v>
+        <v>1146</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>553</v>
+        <v>215</v>
       </c>
       <c r="C23" s="7">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="6">
-        <v>3.3320991026092997E-2</v>
+        <v>0.41671020652366603</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>554</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1471</v>
+        <v>435</v>
       </c>
       <c r="C24" s="7">
-        <v>0.442</v>
+        <v>0.501</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E24" s="6">
-        <v>3.2682647430358397E-2</v>
+        <v>0.41616039722491199</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>1472</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>14</v>
+        <v>679</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>653</v>
+        <v>105</v>
       </c>
       <c r="C25" s="7">
-        <v>0.35399999999999998</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E25" s="6">
-        <v>2.9493413243583198E-2</v>
+        <v>0.40134139092430199</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>654</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C26" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.377</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E26" s="6">
-        <v>2.9435532102129298E-2</v>
+        <v>0.39421639557229299</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>1047</v>
+        <v>1231</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1093</v>
+        <v>155</v>
       </c>
       <c r="C27" s="7">
-        <v>0.68600000000000005</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6">
-        <v>2.91471410552206E-2</v>
+        <v>0.37698021009947702</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1094</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>219</v>
+        <v>753</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>945</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
-        <v>0.377</v>
+        <v>0.505</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E28" s="6">
-        <v>2.85009791675499E-2</v>
+        <v>0.37558336673783799</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>946</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>110</v>
+        <v>552</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>709</v>
+        <v>225</v>
       </c>
       <c r="C29" s="7">
-        <v>0.435</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29" s="6">
-        <v>2.7818205476530598E-2</v>
+        <v>0.37292635232138999</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>710</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>547</v>
+        <v>85</v>
       </c>
       <c r="C30" s="7">
-        <v>0.53500000000000003</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="6">
-        <v>2.72815049035274E-2</v>
+        <v>0.36854714859271598</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>548</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>733</v>
+        <v>1463</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1031</v>
+        <v>1147</v>
       </c>
       <c r="C31" s="7">
-        <v>0.55300000000000005</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E31" s="6">
-        <v>2.50639686632162E-2</v>
+        <v>0.36745148140812001</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>1032</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>941</v>
+        <v>1060</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>879</v>
+        <v>1067</v>
       </c>
       <c r="C32" s="7">
-        <v>0.33200000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>2.4890665525787701E-2</v>
+        <v>0.36433781668430099</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>880</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>409</v>
+        <v>1345</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1011</v>
+        <v>1149</v>
       </c>
       <c r="C33" s="7">
-        <v>0.503</v>
+        <v>0.38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E33" s="6">
-        <v>2.4861442065329101E-2</v>
+        <v>0.36313389979641802</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>1012</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>836</v>
+        <v>489</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>763</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
-        <v>0.48599999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E34" s="6">
-        <v>2.4228925974379801E-2</v>
+        <v>0.343937380020304</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>764</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>387</v>
+        <v>111</v>
       </c>
       <c r="C35" s="7">
-        <v>0.42199999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="6">
-        <v>2.1402636114384699E-2</v>
+        <v>0.34287878153878598</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>388</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>278</v>
+        <v>837</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>965</v>
+        <v>253</v>
       </c>
       <c r="C36" s="7">
-        <v>0.35699999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E36" s="6">
-        <v>2.13940503666257E-2</v>
+        <v>0.34008234884531202</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>966</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>543</v>
+        <v>1125</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>625</v>
+        <v>881</v>
       </c>
       <c r="C37" s="7">
-        <v>0.48399999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E37" s="6">
-        <v>2.1056179952516602E-2</v>
+        <v>0.33647223662121201</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>626</v>
+        <v>882</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>206</v>
+        <v>803</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>567</v>
+        <v>133</v>
       </c>
       <c r="C38" s="7">
-        <v>0.625</v>
+        <v>0.308</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E38" s="6">
-        <v>2.0864274670760699E-2</v>
+        <v>0.33395175639587699</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>568</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>20</v>
+        <v>850</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C39" s="7">
-        <v>0.39</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E39" s="6">
-        <v>2.0517047266669902E-2</v>
+        <v>0.33395175639587699</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>392</v>
+        <v>1406</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>497</v>
+        <v>715</v>
       </c>
       <c r="C40" s="7">
-        <v>0.49199999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E40" s="6">
-        <v>2.0335088420082099E-2</v>
+        <v>0.31952267830743902</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>498</v>
+        <v>716</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>669</v>
+        <v>528</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1419</v>
+        <v>271</v>
       </c>
       <c r="C41" s="7">
-        <v>0.63</v>
+        <v>0.439</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6">
-        <v>1.9139340210697402E-2</v>
+        <v>0.31740043778091898</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1420</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>9</v>
+        <v>722</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>923</v>
+        <v>299</v>
       </c>
       <c r="C42" s="7">
-        <v>0.48399999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E42" s="6">
-        <v>1.8837205580381499E-2</v>
+        <v>0.31619724275980199</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>924</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>303</v>
+        <v>833</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="C43" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>1.3240842236997501E-2</v>
+        <v>0.31177962403084097</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>844</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>283</v>
+        <v>1031</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>613</v>
+        <v>939</v>
       </c>
       <c r="C44" s="7">
-        <v>0.57799999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E44" s="6">
-        <v>1.1491902668042E-2</v>
+        <v>0.29286709467382799</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>614</v>
+        <v>940</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>517</v>
+        <v>181</v>
       </c>
       <c r="C45" s="7">
-        <v>0.55900000000000005</v>
+        <v>0.434</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" s="6">
-        <v>1.11951910924916E-2</v>
+        <v>0.29062882263712198</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>518</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>160</v>
+        <v>1326</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>973</v>
+        <v>925</v>
       </c>
       <c r="C46" s="7">
-        <v>0.40600000000000003</v>
+        <v>0.436</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E46" s="6">
-        <v>1.0994491398666199E-2</v>
+        <v>0.27860485430066401</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>974</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>559</v>
+        <v>399</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1443</v>
+        <v>27</v>
       </c>
       <c r="C47" s="7">
-        <v>0.68700000000000006</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6">
-        <v>1.09740470319767E-2</v>
+        <v>0.27239954676797701</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1444</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>463</v>
+        <v>1140</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>467</v>
+        <v>999</v>
       </c>
       <c r="C48" s="7">
-        <v>0.65700000000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E48" s="6">
-        <v>1.09350460861988E-2</v>
+        <v>0.26554094657456701</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>468</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="C49" s="7">
-        <v>0.58699999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E49" s="6">
-        <v>1.05585213651158E-2</v>
+        <v>0.258667402586164</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>634</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>121</v>
+        <v>736</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>539</v>
+        <v>193</v>
       </c>
       <c r="C50" s="7">
-        <v>0.505</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" s="6">
-        <v>8.4687956530031094E-3</v>
+        <v>0.251314428280906</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>540</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>38</v>
+        <v>723</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="C51" s="7">
-        <v>0.44600000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E51" s="6">
-        <v>7.8293608004357702E-3</v>
+        <v>0.248955936621613</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>349</v>
+        <v>527</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>989</v>
+        <v>199</v>
       </c>
       <c r="C52" s="7">
-        <v>0.625</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E52" s="6">
-        <v>7.2503489623068204E-3</v>
+        <v>0.24362208265775001</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>990</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>1342</v>
+        <v>1032</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1537</v>
+        <v>391</v>
       </c>
       <c r="C53" s="7">
-        <v>0.86299999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E53" s="6">
-        <v>6.9759613207748296E-3</v>
+        <v>0.24287879543594201</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>1538</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>88</v>
+        <v>1320</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1185</v>
+        <v>707</v>
       </c>
       <c r="C54" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E54" s="6">
-        <v>6.7603352186382396E-3</v>
+        <v>0.239229689065834</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>1186</v>
+        <v>708</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>118</v>
+        <v>914</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C55" s="7">
-        <v>0.52500000000000002</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="6">
-        <v>6.7499412541750098E-3</v>
+        <v>0.23732818630616601</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>891</v>
+        <v>187</v>
       </c>
       <c r="C56" s="7">
-        <v>0.47799999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E56" s="6">
-        <v>6.0202612502156597E-3</v>
+        <v>0.23697938397356</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>892</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>485</v>
+        <v>296</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1487</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7">
-        <v>0.54600000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E57" s="6">
-        <v>5.3149208292896204E-3</v>
+        <v>0.23670108287626199</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>1488</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>237</v>
+        <v>1444</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1183</v>
+        <v>893</v>
       </c>
       <c r="C58" s="7">
-        <v>0.63800000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E58" s="6">
-        <v>5.1447058812376899E-3</v>
+        <v>0.23499359123170499</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>1184</v>
+        <v>894</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>69</v>
+        <v>652</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C59" s="7">
-        <v>0.33900000000000002</v>
+        <v>0.502</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E59" s="6">
-        <v>5.1020518838954601E-3</v>
+        <v>0.230158228313594</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>155</v>
+        <v>444</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>427</v>
+        <v>339</v>
       </c>
       <c r="C60" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E60" s="6">
-        <v>4.7489107412817099E-3</v>
+        <v>0.22710171311183799</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>428</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>387</v>
+        <v>253</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1055</v>
+        <v>121</v>
       </c>
       <c r="C61" s="7">
-        <v>0.53400000000000003</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E61" s="6">
-        <v>4.18541994270691E-3</v>
+        <v>0.21944578810527299</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>242</v>
+        <v>1223</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>681</v>
+        <v>1155</v>
       </c>
       <c r="C62" s="7">
-        <v>0.56899999999999995</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6">
-        <v>4.1541237431159698E-3</v>
+        <v>0.21667103680859201</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>682</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>13</v>
+        <v>1352</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>855</v>
+        <v>779</v>
       </c>
       <c r="C63" s="7">
-        <v>0.55700000000000005</v>
+        <v>0.436</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E63" s="6">
-        <v>3.4287707173170801E-3</v>
+        <v>0.21187081254168699</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>856</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>921</v>
+        <v>293</v>
       </c>
       <c r="C64" s="7">
-        <v>0.46800000000000003</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E64" s="6">
-        <v>3.40570784698274E-3</v>
+        <v>0.209619678780884</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>922</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>344</v>
+        <v>741</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>877</v>
+        <v>1107</v>
       </c>
       <c r="C65" s="7">
-        <v>0.68500000000000005</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E65" s="6">
-        <v>3.2695795025198099E-3</v>
+        <v>0.209091797858559</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>878</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>104</v>
+        <v>729</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>837</v>
+        <v>319</v>
       </c>
       <c r="C66" s="7">
-        <v>0.66</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E66" s="6">
-        <v>2.78784680143313E-3</v>
+        <v>0.20856657856743599</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>838</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>26</v>
+        <v>362</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1081</v>
+        <v>247</v>
       </c>
       <c r="C67" s="7">
-        <v>0.45100000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E67" s="6">
-        <v>1.95131531743519E-3</v>
+        <v>0.20812125379246799</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>1082</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1309</v>
+        <v>151</v>
       </c>
       <c r="C68" s="7">
-        <v>0.39800000000000002</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E68" s="6">
-        <v>1.83167007891673E-3</v>
+        <v>0.20806843787404</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>1310</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>67</v>
+        <v>777</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1383</v>
+        <v>163</v>
       </c>
       <c r="C69" s="7">
-        <v>0.45200000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E69" s="6">
-        <v>1.6620272243229801E-3</v>
+        <v>0.202711512497003</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>1384</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>809</v>
+        <v>562</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C70" s="7">
-        <v>0.47</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="6">
-        <v>1.1348635577072801</v>
+        <v>0.20067069546215099</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>946</v>
+        <v>568</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="C71" s="7">
-        <v>0.61899999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E71" s="6">
-        <v>1.1029586218338101</v>
+        <v>0.199665670251927</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>1438</v>
+        <v>767</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C72" s="7">
-        <v>0.42099999999999999</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E72" s="6">
-        <v>1.02398307906553</v>
+        <v>0.194077264982319</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>1110</v>
+        <v>418</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C73" s="7">
-        <v>0.67</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E73" s="6">
-        <v>0.94500753629726297</v>
+        <v>0.193319311003495</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>846</v>
+        <v>337</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>221</v>
+        <v>487</v>
       </c>
       <c r="C74" s="7">
-        <v>0.54200000000000004</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E74" s="6">
-        <v>0.813403628310847</v>
+        <v>0.19252352759743599</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>222</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>659</v>
+        <v>900</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C75" s="7">
-        <v>0.437</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E75" s="6">
-        <v>0.79349092803909904</v>
+        <v>0.18844715022063699</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>1423</v>
+        <v>1312</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>619</v>
+        <v>975</v>
       </c>
       <c r="C76" s="7">
-        <v>0.42599999999999999</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" s="6">
-        <v>0.77340236034731602</v>
+        <v>0.18746295629437301</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>620</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>421</v>
+        <v>501</v>
       </c>
       <c r="C77" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E77" s="6">
-        <v>0.56130340213885999</v>
+        <v>0.18571714579509199</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>1296</v>
+        <v>840</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>841</v>
+        <v>555</v>
       </c>
       <c r="C78" s="7">
-        <v>0.53800000000000003</v>
+        <v>0.373</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E78" s="6">
-        <v>0.51749787537505798</v>
+        <v>0.18533360726394599</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>842</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>929</v>
+        <v>1337</v>
       </c>
       <c r="C79" s="7">
-        <v>0.3</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="6">
-        <v>0.503366532914857</v>
+        <v>0.184003642976939</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>930</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>951</v>
+        <v>221</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="C80" s="7">
-        <v>0.65800000000000003</v>
+        <v>0.377</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="6">
-        <v>0.49457139594259403</v>
+        <v>0.183314605534946</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>1376</v>
+        <v>871</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
       <c r="C81" s="7">
-        <v>0.55400000000000005</v>
+        <v>0.314</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" s="6">
-        <v>0.49039358494878399</v>
+        <v>0.17693070815907799</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>564</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>1146</v>
+        <v>1197</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>215</v>
+        <v>477</v>
       </c>
       <c r="C82" s="7">
-        <v>0.37</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="6">
-        <v>0.41671020652366603</v>
+        <v>0.17260355263082999</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>216</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>1060</v>
+        <v>127</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1067</v>
+        <v>375</v>
       </c>
       <c r="C83" s="7">
-        <v>0.54500000000000004</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E83" s="6">
-        <v>0.36433781668430099</v>
+        <v>0.166708043942255</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>1068</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>837</v>
+        <v>560</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>253</v>
+        <v>687</v>
       </c>
       <c r="C84" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.439</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E84" s="6">
-        <v>0.34008234884531202</v>
+        <v>0.16652611461320099</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>254</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>528</v>
+        <v>963</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="C85" s="7">
-        <v>0.439</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E85" s="6">
-        <v>0.31740043778091898</v>
+        <v>0.16635770580494</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="C86" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86" s="6">
-        <v>0.31619724275980199</v>
+        <v>0.16362942378180201</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>833</v>
+        <v>1048</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>143</v>
+        <v>405</v>
       </c>
       <c r="C87" s="7">
-        <v>0.504</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E87" s="6">
-        <v>0.31177962403084097</v>
+        <v>0.162078950023052</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>144</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>1031</v>
+        <v>68</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>939</v>
+        <v>131</v>
       </c>
       <c r="C88" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88" s="6">
-        <v>0.29286709467382799</v>
+        <v>0.16143214434637199</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>940</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="C89" s="7">
-        <v>0.51600000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89" s="6">
-        <v>0.27239954676797701</v>
+        <v>0.15963014559188299</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>1140</v>
+        <v>222</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>999</v>
+        <v>59</v>
       </c>
       <c r="C90" s="7">
-        <v>0.63300000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E90" s="6">
-        <v>0.26554094657456701</v>
+        <v>0.159479735724713</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>394</v>
+        <v>844</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C91" s="7">
-        <v>0.5</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6">
-        <v>0.258667402586164</v>
+        <v>0.156569060691539</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>723</v>
+        <v>1265</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>289</v>
+        <v>951</v>
       </c>
       <c r="C92" s="7">
-        <v>0.69199999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="6">
-        <v>0.248955936621613</v>
+        <v>0.15575452940923201</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>290</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>652</v>
+        <v>335</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>645</v>
+        <v>773</v>
       </c>
       <c r="C93" s="7">
-        <v>0.502</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" s="6">
-        <v>0.230158228313594</v>
+        <v>0.15535044001916201</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>646</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="C94" s="7">
-        <v>0.222</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E94" s="6">
-        <v>0.22710171311183799</v>
+        <v>0.155216210029296</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>340</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="C95" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E95" s="6">
-        <v>0.21944578810527299</v>
+        <v>0.14935692774322101</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>1223</v>
+        <v>276</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1155</v>
+        <v>251</v>
       </c>
       <c r="C96" s="7">
-        <v>0.45600000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E96" s="6">
-        <v>0.21667103680859201</v>
+        <v>0.14242034004176801</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>1156</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>1352</v>
+        <v>815</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>779</v>
+        <v>409</v>
       </c>
       <c r="C97" s="7">
-        <v>0.436</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" s="6">
-        <v>0.21187081254168699</v>
+        <v>0.13825661970102501</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>780</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>375</v>
+        <v>1136</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>293</v>
+        <v>949</v>
       </c>
       <c r="C98" s="7">
-        <v>0.40300000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98" s="6">
-        <v>0.209619678780884</v>
+        <v>0.13720112151348501</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>294</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>729</v>
+        <v>428</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>319</v>
+        <v>451</v>
       </c>
       <c r="C99" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99" s="6">
-        <v>0.20856657856743599</v>
+        <v>0.13313574474596801</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>247</v>
+        <v>1087</v>
       </c>
       <c r="C100" s="7">
-        <v>0.63700000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100" s="6">
-        <v>0.20812125379246799</v>
+        <v>0.13254665596198301</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>248</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>777</v>
+        <v>818</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C101" s="7">
-        <v>0.34799999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" s="6">
-        <v>0.202711512497003</v>
+        <v>0.12595240897761401</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>562</v>
+        <v>224</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="C102" s="7">
-        <v>0.45900000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E102" s="6">
-        <v>0.20067069546215099</v>
+        <v>0.12435274487954399</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>767</v>
+        <v>1504</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>505</v>
+        <v>1115</v>
       </c>
       <c r="C103" s="7">
-        <v>0.48699999999999999</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="6">
-        <v>0.194077264982319</v>
+        <v>0.12017442778845901</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>506</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>418</v>
+        <v>894</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>33</v>
+        <v>543</v>
       </c>
       <c r="C104" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E104" s="6">
-        <v>0.193319311003495</v>
+        <v>0.11433759744908301</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>34</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>487</v>
+        <v>957</v>
       </c>
       <c r="C105" s="7">
-        <v>0.50600000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105" s="6">
-        <v>0.19252352759743599</v>
+        <v>0.11053338064061299</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>488</v>
+        <v>958</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>900</v>
+        <v>743</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="C106" s="7">
-        <v>0.53500000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="6">
-        <v>0.18844715022063699</v>
+        <v>0.109232458544138</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>792</v>
+        <v>924</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>501</v>
+        <v>1141</v>
       </c>
       <c r="C107" s="7">
-        <v>0.47399999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107" s="6">
-        <v>0.18571714579509199</v>
+        <v>0.10821358464023199</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>502</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>1466</v>
+        <v>159</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1337</v>
+        <v>51</v>
       </c>
       <c r="C108" s="7">
-        <v>0.63500000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E108" s="6">
-        <v>0.184003642976939</v>
+        <v>0.104533727681832</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>1338</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>221</v>
+        <v>845</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>239</v>
+        <v>509</v>
       </c>
       <c r="C109" s="7">
-        <v>0.377</v>
+        <v>0.372</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="6">
-        <v>0.183314605534946</v>
+        <v>0.10377967991789799</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>240</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>1197</v>
+        <v>393</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="C110" s="7">
-        <v>0.36099999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E110" s="6">
-        <v>0.17260355263082999</v>
+        <v>0.102129495076379</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>478</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="C111" s="7">
-        <v>0.29599999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E111" s="6">
-        <v>0.166708043942255</v>
+        <v>0.100904684124298</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>376</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>560</v>
+        <v>417</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="C112" s="7">
-        <v>0.439</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E112" s="6">
-        <v>0.16652611461320099</v>
+        <v>0.100083458556982</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>688</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>963</v>
+        <v>410</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>355</v>
+        <v>65</v>
       </c>
       <c r="C113" s="7">
-        <v>0.50900000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E113" s="6">
-        <v>0.16635770580494</v>
+        <v>9.9460793530637998E-2</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>356</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>1048</v>
+        <v>862</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>405</v>
+        <v>1001</v>
       </c>
       <c r="C114" s="7">
-        <v>0.54700000000000004</v>
+        <v>0.246</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E114" s="6">
-        <v>0.162078950023052</v>
+        <v>9.7937534986705696E-2</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>406</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>222</v>
+        <v>935</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>59</v>
+        <v>531</v>
       </c>
       <c r="C115" s="7">
-        <v>0.46800000000000003</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E115" s="6">
-        <v>0.159479735724713</v>
+        <v>9.7374164025176305E-2</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>60</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>1265</v>
+        <v>76</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>951</v>
+        <v>229</v>
       </c>
       <c r="C116" s="7">
-        <v>0.94599999999999995</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E116" s="6">
-        <v>0.15575452940923201</v>
+        <v>9.5324386468671293E-2</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>952</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>351</v>
+        <v>1277</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>89</v>
+        <v>847</v>
       </c>
       <c r="C117" s="7">
-        <v>0.48399999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E117" s="6">
-        <v>0.155216210029296</v>
+        <v>9.3144655206703397E-2</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>90</v>
+        <v>848</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>1504</v>
+        <v>352</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="C118" s="7">
-        <v>0.61699999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E118" s="6">
-        <v>0.12017442778845901</v>
+        <v>9.2874125006443695E-2</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>1116</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>894</v>
+        <v>690</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>543</v>
+        <v>1077</v>
       </c>
       <c r="C119" s="7">
-        <v>0.752</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E119" s="6">
-        <v>0.11433759744908301</v>
+        <v>9.2712560414588099E-2</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>544</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>743</v>
+        <v>1062</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>417</v>
+        <v>1177</v>
       </c>
       <c r="C120" s="7">
-        <v>0.45</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E120" s="6">
-        <v>0.109232458544138</v>
+        <v>9.2018898720252096E-2</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>418</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>159</v>
+        <v>1131</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>51</v>
+        <v>1083</v>
       </c>
       <c r="C121" s="7">
-        <v>0.49399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E121" s="6">
-        <v>0.104533727681832</v>
+        <v>9.0559577045726994E-2</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>52</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>845</v>
+        <v>549</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="C122" s="7">
-        <v>0.372</v>
+        <v>0.47</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E122" s="6">
-        <v>0.10377967991789799</v>
+        <v>8.8162787594671596E-2</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="C123" s="7">
-        <v>0.375</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E123" s="6">
-        <v>0.102129495076379</v>
+        <v>8.7698128141627404E-2</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>48</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C124" s="7">
-        <v>0.41099999999999998</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E124" s="6">
-        <v>0.100083458556982</v>
+        <v>8.4664593712016095E-2</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>531</v>
+        <v>69</v>
       </c>
       <c r="C125" s="7">
-        <v>0.45200000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E125" s="6">
-        <v>9.7374164025176305E-2</v>
+        <v>8.3614140041133503E-2</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>532</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>1277</v>
+        <v>332</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>847</v>
+        <v>329</v>
       </c>
       <c r="C126" s="7">
-        <v>0.73299999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E126" s="6">
-        <v>9.3144655206703397E-2</v>
+        <v>8.3021433280261001E-2</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>848</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>1062</v>
+        <v>1244</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>1177</v>
+        <v>1097</v>
       </c>
       <c r="C127" s="7">
-        <v>0.57199999999999995</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E127" s="6">
-        <v>9.2018898720252096E-2</v>
+        <v>8.28631160135051E-2</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>1178</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>1131</v>
+        <v>911</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>1083</v>
+        <v>257</v>
       </c>
       <c r="C128" s="7">
-        <v>0.53</v>
+        <v>0.504</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E128" s="6">
-        <v>9.0559577045726994E-2</v>
+        <v>8.1180456678836499E-2</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>1084</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>549</v>
+        <v>250</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>549</v>
+        <v>485</v>
       </c>
       <c r="C129" s="7">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E129" s="6">
-        <v>8.8162787594671596E-2</v>
+        <v>7.9758818388450198E-2</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>550</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>939</v>
+        <v>2</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C130" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E130" s="6">
-        <v>8.3614140041133503E-2</v>
+        <v>7.9561578962327503E-2</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="C131" s="7">
-        <v>0.36699999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E131" s="6">
-        <v>8.3021433280261001E-2</v>
+        <v>7.8660319772390699E-2</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>1244</v>
+        <v>66</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1097</v>
+        <v>91</v>
       </c>
       <c r="C132" s="7">
-        <v>0.60699999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E132" s="6">
-        <v>8.28631160135051E-2</v>
+        <v>7.8520934073776194E-2</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>1098</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>911</v>
+        <v>166</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C133" s="7">
-        <v>0.504</v>
+        <v>0.216</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E133" s="6">
-        <v>8.1180456678836499E-2</v>
+        <v>7.8279557055155602E-2</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>485</v>
+        <v>955</v>
       </c>
       <c r="C134" s="7">
-        <v>0.52</v>
+        <v>0.496</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E134" s="6">
-        <v>7.9758818388450198E-2</v>
+        <v>7.7759364699133998E-2</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>486</v>
+        <v>956</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>2</v>
+        <v>904</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C135" s="7">
-        <v>0.33900000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E135" s="6">
-        <v>7.9561578962327503E-2</v>
+        <v>7.7671241891131795E-2</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C136" s="7">
-        <v>0.216</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136" s="6">
-        <v>7.8279557055155602E-2</v>
+        <v>7.70322180463687E-2</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>904</v>
+        <v>778</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>13</v>
+        <v>1033</v>
       </c>
       <c r="C137" s="7">
-        <v>0.42499999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137" s="6">
-        <v>7.7671241891131795E-2</v>
+        <v>7.6519149834196207E-2</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>14</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -26401,2810 +26291,2810 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>274</v>
+        <v>1237</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>203</v>
+        <v>1225</v>
       </c>
       <c r="C139" s="7">
-        <v>0.36099999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E139" s="6">
-        <v>7.4169072572278699E-2</v>
+        <v>7.536521894921E-2</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>204</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>173</v>
+        <v>480</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>413</v>
+        <v>749</v>
       </c>
       <c r="C140" s="7">
-        <v>0.56599999999999995</v>
+        <v>0.372</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E140" s="6">
-        <v>7.3925273697015598E-2</v>
+        <v>7.4352980117706302E-2</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>414</v>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>209</v>
+        <v>639</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>731</v>
+        <v>1357</v>
       </c>
       <c r="C141" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E141" s="6">
-        <v>7.3292865465473006E-2</v>
+        <v>7.4245589989210506E-2</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>732</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>1366</v>
+        <v>274</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1365</v>
+        <v>203</v>
       </c>
       <c r="C142" s="7">
-        <v>0.53800000000000003</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E142" s="6">
-        <v>7.2233557359371495E-2</v>
+        <v>7.4169072572278699E-2</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>1366</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="C143" s="7">
-        <v>0.315</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E143" s="6">
-        <v>7.1973499625089199E-2</v>
+        <v>7.3925273697015598E-2</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>365</v>
+        <v>731</v>
       </c>
       <c r="C144" s="7">
-        <v>0.34799999999999998</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E144" s="6">
-        <v>7.0951735972284394E-2</v>
+        <v>7.3292865465473006E-2</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>366</v>
+        <v>732</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>200</v>
+        <v>1366</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>81</v>
+        <v>1365</v>
       </c>
       <c r="C145" s="7">
-        <v>0.46800000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E145" s="6">
-        <v>6.9851037859964493E-2</v>
+        <v>7.2233557359371495E-2</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>82</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>1102</v>
+        <v>271</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>1379</v>
+        <v>37</v>
       </c>
       <c r="C146" s="7">
-        <v>0.49199999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E146" s="6">
-        <v>6.6802795111600796E-2</v>
+        <v>7.1973499625089199E-2</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>1380</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>731</v>
+        <v>1074</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>207</v>
+        <v>541</v>
       </c>
       <c r="C147" s="7">
-        <v>0.49099999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147" s="6">
-        <v>6.4538521137571095E-2</v>
+        <v>7.1204446291791595E-2</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>208</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>554</v>
+        <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>1385</v>
+        <v>365</v>
       </c>
       <c r="C148" s="7">
-        <v>0.5</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E148" s="6">
-        <v>6.3919517713287397E-2</v>
+        <v>7.0951735972284394E-2</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>1386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>702</v>
+        <v>200</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>637</v>
+        <v>81</v>
       </c>
       <c r="C149" s="7">
-        <v>0.66900000000000004</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E149" s="6">
-        <v>6.3614448994192899E-2</v>
+        <v>6.9851037859964493E-2</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>638</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>249</v>
+        <v>1102</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>317</v>
+        <v>1379</v>
       </c>
       <c r="C150" s="7">
-        <v>0.55100000000000005</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E150" s="6">
-        <v>6.1077324665905403E-2</v>
+        <v>6.6802795111600796E-2</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>318</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>1218</v>
+        <v>731</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>1403</v>
+        <v>207</v>
       </c>
       <c r="C151" s="7">
-        <v>0.44600000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E151" s="6">
-        <v>5.67528165924494E-2</v>
+        <v>6.4538521137571095E-2</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1404</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>96</v>
+        <v>554</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>657</v>
+        <v>1385</v>
       </c>
       <c r="C152" s="7">
-        <v>0.52900000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E152" s="6">
-        <v>5.6410171529350302E-2</v>
+        <v>6.3919517713287397E-2</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>658</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>279</v>
+        <v>1029</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>201</v>
+        <v>1387</v>
       </c>
       <c r="C153" s="7">
-        <v>0.47399999999999998</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E153" s="6">
-        <v>5.62578026500943E-2</v>
+        <v>6.37158143861076E-2</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>202</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>1437</v>
+        <v>637</v>
       </c>
       <c r="C154" s="7">
-        <v>0.41</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E154" s="6">
-        <v>5.4791548829682402E-2</v>
+        <v>6.3614448994192899E-2</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>1438</v>
+        <v>638</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="C155" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155" s="6">
-        <v>5.3574674649473297E-2</v>
+        <v>6.2988152932350397E-2</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>238</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>1229</v>
+        <v>249</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>1203</v>
+        <v>317</v>
       </c>
       <c r="C156" s="7">
-        <v>0.52700000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E156" s="6">
-        <v>5.3560323833736802E-2</v>
+        <v>6.1077324665905403E-2</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>1204</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>63</v>
+        <v>630</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>603</v>
+        <v>931</v>
       </c>
       <c r="C157" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" s="6">
-        <v>5.3249376073877898E-2</v>
+        <v>5.8581901624802299E-2</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>604</v>
+        <v>932</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>403</v>
+        <v>865</v>
       </c>
       <c r="C158" s="7">
-        <v>0.54500000000000004</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E158" s="6">
-        <v>5.1557809664849998E-2</v>
+        <v>5.8223660278896597E-2</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>404</v>
+        <v>866</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>681</v>
+        <v>968</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>6</v>
+        <v>935</v>
       </c>
       <c r="C159" s="7">
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E159" s="6">
-        <v>5.0452060960388602E-2</v>
+        <v>5.7903292831558997E-2</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>7</v>
+        <v>936</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>382</v>
+        <v>1218</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>721</v>
+        <v>1403</v>
       </c>
       <c r="C160" s="7">
-        <v>0.52100000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E160" s="6">
-        <v>5.0452060960388602E-2</v>
+        <v>5.67528165924494E-2</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>722</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="C161" s="7">
-        <v>0.48799999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E161" s="6">
-        <v>4.9549146900389501E-2</v>
+        <v>5.6441310904951802E-2</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>772</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>191</v>
+        <v>657</v>
       </c>
       <c r="C162" s="7">
-        <v>0.47599999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E162" s="6">
-        <v>4.9515064527380498E-2</v>
+        <v>5.6410171529350302E-2</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>192</v>
+        <v>658</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>981</v>
+        <v>41</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="C163" s="7">
-        <v>0.53100000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E163" s="6">
-        <v>4.9406315387071201E-2</v>
+        <v>5.6273635982108598E-2</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
       <c r="C164" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="6">
-        <v>4.9352119789727603E-2</v>
+        <v>5.62578026500943E-2</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>456</v>
+        <v>202</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>711</v>
+        <v>219</v>
       </c>
       <c r="C165" s="7">
-        <v>0.317</v>
+        <v>0.443</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165" s="6">
-        <v>4.9223880625761197E-2</v>
+        <v>5.4958884280757403E-2</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>712</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>593</v>
+        <v>735</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>727</v>
+        <v>1437</v>
       </c>
       <c r="C166" s="7">
-        <v>0.43099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E166" s="6">
-        <v>4.8671406375812201E-2</v>
+        <v>5.4791548829682402E-2</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>728</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>388</v>
+        <v>15</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="C167" s="7">
-        <v>0.41799999999999998</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E167" s="6">
-        <v>4.8494349938610397E-2</v>
+        <v>5.3574674649473297E-2</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>247</v>
+        <v>1229</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>149</v>
+        <v>1203</v>
       </c>
       <c r="C168" s="7">
-        <v>0.47599999999999998</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E168" s="6">
-        <v>4.7571394975302501E-2</v>
+        <v>5.3560323833736802E-2</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>150</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>692</v>
+        <v>1095</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>823</v>
+        <v>1315</v>
       </c>
       <c r="C169" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E169" s="6">
-        <v>4.6074115337669502E-2</v>
+        <v>5.3560323833736802E-2</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>824</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>987</v>
+        <v>63</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>1193</v>
+        <v>603</v>
       </c>
       <c r="C170" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E170" s="6">
-        <v>4.5617943461016303E-2</v>
+        <v>5.3249376073877898E-2</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1194</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C171" s="7">
-        <v>0.46800000000000003</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E171" s="6">
-        <v>4.4951387862266302E-2</v>
+        <v>5.1557809664849998E-2</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>78</v>
+        <v>681</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>971</v>
+        <v>6</v>
       </c>
       <c r="C172" s="7">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E172" s="6">
-        <v>4.4263005655043298E-2</v>
+        <v>5.0452060960388602E-2</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>972</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>525</v>
+        <v>382</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1219</v>
+        <v>721</v>
       </c>
       <c r="C173" s="7">
-        <v>0.42799999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E173" s="6">
-        <v>4.39094926155685E-2</v>
+        <v>5.0452060960388602E-2</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1220</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>171</v>
+        <v>617</v>
       </c>
       <c r="C174" s="7">
-        <v>0.63800000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E174" s="6">
-        <v>4.3627420179626002E-2</v>
+        <v>4.9982640867735399E-2</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>172</v>
+        <v>618</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>524</v>
+        <v>105</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>173</v>
+        <v>771</v>
       </c>
       <c r="C175" s="7">
-        <v>0.48399999999999999</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E175" s="6">
-        <v>4.3579880704024999E-2</v>
+        <v>4.9549146900389501E-2</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>174</v>
+        <v>772</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>1155</v>
+        <v>259</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>1233</v>
+        <v>191</v>
       </c>
       <c r="C176" s="7">
-        <v>0.49</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E176" s="6">
-        <v>4.2042623295551002E-2</v>
+        <v>4.9515064527380498E-2</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>721</v>
+        <v>981</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>769</v>
+        <v>249</v>
       </c>
       <c r="C177" s="7">
-        <v>0.48799999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E177" s="6">
-        <v>4.2003374585629298E-2</v>
+        <v>4.9406315387071201E-2</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>770</v>
+        <v>250</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>1371</v>
+        <v>455</v>
       </c>
       <c r="C178" s="7">
-        <v>0.45300000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E178" s="6">
-        <v>4.0076600927033801E-2</v>
+        <v>4.9352119789727603E-2</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1372</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>947</v>
+        <v>152</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>63</v>
+        <v>711</v>
       </c>
       <c r="C179" s="7">
-        <v>0.55200000000000005</v>
+        <v>0.317</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E179" s="6">
-        <v>3.92977874143699E-2</v>
+        <v>4.9223880625761197E-2</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>64</v>
+        <v>712</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>241</v>
+        <v>593</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>489</v>
+        <v>727</v>
       </c>
       <c r="C180" s="7">
-        <v>0.55200000000000005</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E180" s="6">
-        <v>3.88021518564797E-2</v>
+        <v>4.8671406375812201E-2</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>490</v>
+        <v>728</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>380</v>
+        <v>759</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>267</v>
+        <v>911</v>
       </c>
       <c r="C181" s="7">
-        <v>0.47499999999999998</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E181" s="6">
-        <v>3.87176353507079E-2</v>
+        <v>4.8612244055093699E-2</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>268</v>
+        <v>912</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="C182" s="7">
-        <v>0.30399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E182" s="6">
-        <v>3.818277748849E-2</v>
+        <v>4.8513959223607503E-2</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>688</v>
+        <v>388</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="C183" s="7">
-        <v>0.48899999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E183" s="6">
-        <v>3.81725735050297E-2</v>
+        <v>4.8494349938610397E-2</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>622</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>797</v>
+        <v>149</v>
       </c>
       <c r="C184" s="7">
-        <v>0.61199999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E184" s="6">
-        <v>3.6495073288600598E-2</v>
+        <v>4.7571394975302501E-2</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>798</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>1254</v>
+        <v>773</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1303</v>
+        <v>641</v>
       </c>
       <c r="C185" s="7">
-        <v>0.60499999999999998</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185" s="6">
-        <v>3.5401927050915903E-2</v>
+        <v>4.70675108579858E-2</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1304</v>
+        <v>642</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>1143</v>
+        <v>689</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>1355</v>
+        <v>1157</v>
       </c>
       <c r="C186" s="7">
-        <v>0.58399999999999996</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E186" s="6">
-        <v>3.4884723259167298E-2</v>
+        <v>4.6251017650755601E-2</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>1356</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>886</v>
+        <v>692</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1227</v>
+        <v>823</v>
       </c>
       <c r="C187" s="7">
-        <v>0.442</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E187" s="6">
-        <v>3.4103901828857003E-2</v>
+        <v>4.6074115337669502E-2</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>1228</v>
+        <v>824</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>384</v>
+        <v>987</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>745</v>
+        <v>1193</v>
       </c>
       <c r="C188" s="7">
-        <v>0.52800000000000002</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E188" s="6">
-        <v>3.3991187817033502E-2</v>
+        <v>4.5617943461016303E-2</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>746</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C189" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E189" s="6">
-        <v>3.1106707132254802E-2</v>
+        <v>4.5397866271290499E-2</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="C190" s="7">
-        <v>0.38600000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E190" s="6">
-        <v>3.1036973995576402E-2</v>
+        <v>4.4951387862266302E-2</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>158</v>
+        <v>398</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>77</v>
+        <v>971</v>
       </c>
       <c r="C191" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E191" s="6">
-        <v>3.08296380840767E-2</v>
+        <v>4.4263005655043298E-2</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>78</v>
+        <v>972</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>1011</v>
+        <v>525</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>545</v>
+        <v>1219</v>
       </c>
       <c r="C192" s="7">
-        <v>0.58099999999999996</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E192" s="6">
-        <v>3.0100090297855899E-2</v>
+        <v>4.39094926155685E-2</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>546</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>456</v>
+        <v>280</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>1079</v>
+        <v>171</v>
       </c>
       <c r="C193" s="7">
-        <v>0.28899999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E193" s="6">
-        <v>2.93061265854993E-2</v>
+        <v>4.3627420179626002E-2</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1080</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>236</v>
+        <v>524</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>577</v>
+        <v>173</v>
       </c>
       <c r="C194" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E194" s="6">
-        <v>2.91056633868856E-2</v>
+        <v>4.3579880704024999E-2</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>578</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>559</v>
+        <v>1251</v>
       </c>
       <c r="C195" s="7">
-        <v>0.48699999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E195" s="6">
-        <v>2.8722132350970701E-2</v>
+        <v>4.3485111939738801E-2</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>560</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>695</v>
+        <v>1155</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>647</v>
+        <v>1233</v>
       </c>
       <c r="C196" s="7">
-        <v>0.627</v>
+        <v>0.49</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E196" s="6">
-        <v>2.83215908632461E-2</v>
+        <v>4.2042623295551002E-2</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>648</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>986</v>
+        <v>721</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>693</v>
+        <v>769</v>
       </c>
       <c r="C197" s="7">
-        <v>0.67300000000000004</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E197" s="6">
-        <v>2.67316184383295E-2</v>
+        <v>4.2003374585629298E-2</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>694</v>
+        <v>770</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>369</v>
+        <v>967</v>
       </c>
       <c r="C198" s="7">
-        <v>0.36199999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E198" s="6">
-        <v>2.6256496787488599E-2</v>
+        <v>4.0780370344927999E-2</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>370</v>
+        <v>968</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>46</v>
+        <v>1235</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>629</v>
+        <v>1515</v>
       </c>
       <c r="C199" s="7">
-        <v>0.63500000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E199" s="6">
-        <v>2.6064861710547699E-2</v>
+        <v>4.0573516447166502E-2</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>630</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>671</v>
+        <v>1371</v>
       </c>
       <c r="C200" s="7">
-        <v>0.54300000000000004</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E200" s="6">
-        <v>2.5990489816537399E-2</v>
+        <v>4.0076600927033801E-2</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>672</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>117</v>
+        <v>686</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>631</v>
+        <v>31</v>
       </c>
       <c r="C201" s="7">
-        <v>0.39100000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E201" s="6">
-        <v>2.54466656611642E-2</v>
+        <v>3.9845908547199597E-2</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>632</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>1439</v>
+        <v>63</v>
       </c>
       <c r="C202" s="7">
-        <v>0.60499999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E202" s="6">
-        <v>2.4677378093376199E-2</v>
+        <v>3.92977874143699E-2</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1440</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>305</v>
+        <v>489</v>
       </c>
       <c r="C203" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E203" s="6">
-        <v>2.3747034562878098E-2</v>
+        <v>3.88021518564797E-2</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>49</v>
+        <v>682</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>537</v>
+        <v>1457</v>
       </c>
       <c r="C204" s="7">
-        <v>0.56899999999999995</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E204" s="6">
-        <v>2.3541576821877401E-2</v>
+        <v>3.8727007885292097E-2</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>538</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>791</v>
+        <v>380</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>1323</v>
+        <v>267</v>
       </c>
       <c r="C205" s="7">
-        <v>0.65700000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E205" s="6">
-        <v>2.3283938954044701E-2</v>
+        <v>3.87176353507079E-2</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>678</v>
+        <v>168</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>1333</v>
+        <v>439</v>
       </c>
       <c r="C206" s="7">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E206" s="6">
-        <v>2.27153435214726E-2</v>
+        <v>3.8614836127779502E-2</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1334</v>
+        <v>440</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>1133</v>
+        <v>205</v>
       </c>
       <c r="C207" s="7">
-        <v>0.56599999999999995</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E207" s="6">
-        <v>2.2612608490116998E-2</v>
+        <v>3.818277748849E-2</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>287</v>
+        <v>688</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C208" s="7">
-        <v>0.55500000000000005</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E208" s="6">
-        <v>2.1825992579766099E-2</v>
+        <v>3.81725735050297E-2</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>958</v>
+        <v>992</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>1095</v>
+        <v>1205</v>
       </c>
       <c r="C209" s="7">
-        <v>0.52100000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E209" s="6">
-        <v>2.1763644636359599E-2</v>
+        <v>3.7006998108696801E-2</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1096</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>636</v>
+        <v>188</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>713</v>
+        <v>663</v>
       </c>
       <c r="C210" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E210" s="6">
-        <v>2.1020216931627301E-2</v>
+        <v>3.6783877267414902E-2</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>654</v>
+        <v>1021</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>1505</v>
+        <v>1209</v>
       </c>
       <c r="C211" s="7">
-        <v>0.79900000000000004</v>
+        <v>0.78</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E211" s="6">
-        <v>2.0608663427789602E-2</v>
+        <v>3.6604330562512298E-2</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1506</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>863</v>
+        <v>797</v>
       </c>
       <c r="C212" s="7">
-        <v>0.47</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E212" s="6">
-        <v>2.0461071871340001E-2</v>
+        <v>3.6495073288600598E-2</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>864</v>
+        <v>798</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>5</v>
+        <v>354</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C213" s="7">
-        <v>0.29499999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E213" s="6">
-        <v>2.0329346568668801E-2</v>
+        <v>3.6467121912812102E-2</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>79</v>
+        <v>1254</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>815</v>
+        <v>1303</v>
       </c>
       <c r="C214" s="7">
-        <v>0.35599999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E214" s="6">
-        <v>2.0204373427427699E-2</v>
+        <v>3.5401927050915903E-2</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>816</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>540</v>
+        <v>1143</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>595</v>
+        <v>1355</v>
       </c>
       <c r="C215" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E215" s="6">
-        <v>1.9212886859991202E-2</v>
+        <v>3.4884723259167298E-2</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>596</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="C216" s="7">
-        <v>0.35599999999999998</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E216" s="6">
-        <v>1.9057270410286101E-2</v>
+        <v>3.4565653112280798E-2</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>520</v>
+        <v>130</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>1513</v>
+        <v>1227</v>
       </c>
       <c r="C217" s="7">
-        <v>0.60199999999999998</v>
+        <v>0.442</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E217" s="6">
-        <v>1.8622512098001798E-2</v>
+        <v>3.4103901828857003E-2</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1514</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>146</v>
+        <v>384</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>93</v>
+        <v>745</v>
       </c>
       <c r="C218" s="7">
-        <v>0.33200000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E218" s="6">
-        <v>1.8275779938736799E-2</v>
+        <v>3.3991187817033502E-2</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>94</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>438</v>
+        <v>198</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>985</v>
+        <v>553</v>
       </c>
       <c r="C219" s="7">
-        <v>0.433</v>
+        <v>0.42</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E219" s="6">
-        <v>1.8193345961205701E-2</v>
+        <v>3.3320991026092997E-2</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>986</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>406</v>
+        <v>84</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>281</v>
+        <v>513</v>
       </c>
       <c r="C220" s="7">
-        <v>0.66900000000000004</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220" s="6">
-        <v>1.7746694681335301E-2</v>
+        <v>3.2938342019369897E-2</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>282</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>240</v>
+        <v>989</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>573</v>
+        <v>1471</v>
       </c>
       <c r="C221" s="7">
-        <v>0.432</v>
+        <v>0.442</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E221" s="6">
-        <v>1.6981540148094099E-2</v>
+        <v>3.2682647430358397E-2</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>574</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>913</v>
+        <v>183</v>
       </c>
       <c r="C222" s="7">
-        <v>0.46</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E222" s="6">
-        <v>1.6854331554982099E-2</v>
+        <v>3.1106707132254802E-2</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>914</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>658</v>
+        <v>304</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>839</v>
+        <v>157</v>
       </c>
       <c r="C223" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E223" s="6">
-        <v>1.6611677666896099E-2</v>
+        <v>3.1036973995576402E-2</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>701</v>
+        <v>77</v>
       </c>
       <c r="C224" s="7">
-        <v>0.45200000000000001</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E224" s="6">
-        <v>1.64327232515676E-2</v>
+        <v>3.08296380840767E-2</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>702</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>737</v>
+        <v>655</v>
       </c>
       <c r="C225" s="7">
-        <v>0.27400000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E225" s="6">
-        <v>1.57918796978916E-2</v>
+        <v>3.0443751414723101E-2</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>738</v>
+        <v>656</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>59</v>
+        <v>1192</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1051</v>
+        <v>1461</v>
       </c>
       <c r="C226" s="7">
-        <v>0.53900000000000003</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E226" s="6">
-        <v>1.57918796978916E-2</v>
+        <v>3.01833778230985E-2</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1052</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>139</v>
+        <v>1011</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>275</v>
+        <v>545</v>
       </c>
       <c r="C227" s="7">
-        <v>0.40100000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E227" s="6">
-        <v>1.5487677691351299E-2</v>
+        <v>3.0100090297855899E-2</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>276</v>
+        <v>546</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>903</v>
+        <v>653</v>
       </c>
       <c r="C228" s="7">
-        <v>0.47699999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E228" s="6">
-        <v>1.4440684154794299E-2</v>
+        <v>2.9493413243583198E-2</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>904</v>
+        <v>654</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>1405</v>
+        <v>213</v>
       </c>
       <c r="C229" s="7">
-        <v>0.314</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E229" s="6">
-        <v>1.43732262413717E-2</v>
+        <v>2.9435532102129298E-2</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>1406</v>
+        <v>214</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>363</v>
+        <v>1079</v>
       </c>
       <c r="C230" s="7">
-        <v>0.433</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E230" s="6">
-        <v>1.42317392572563E-2</v>
+        <v>2.93061265854993E-2</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>364</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>150</v>
+        <v>1047</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>415</v>
+        <v>1093</v>
       </c>
       <c r="C231" s="7">
-        <v>0.36299999999999999</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E231" s="6">
-        <v>1.41345109349047E-2</v>
+        <v>2.91471410552206E-2</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>416</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
       <c r="C232" s="7">
-        <v>0.52400000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E232" s="6">
-        <v>1.2527567532662799E-2</v>
+        <v>2.91056633868856E-2</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>650</v>
+        <v>578</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>775</v>
+        <v>559</v>
       </c>
       <c r="C233" s="7">
-        <v>0.36899999999999999</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="6">
-        <v>1.23994149050382E-2</v>
+        <v>2.8722132350970701E-2</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>776</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>895</v>
+        <v>945</v>
       </c>
       <c r="C234" s="7">
-        <v>0.40699999999999997</v>
+        <v>0.377</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E234" s="6">
-        <v>1.18698573390292E-2</v>
+        <v>2.85009791675499E-2</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>896</v>
+        <v>946</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>442</v>
+        <v>695</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1121</v>
+        <v>647</v>
       </c>
       <c r="C235" s="7">
-        <v>0.67800000000000005</v>
+        <v>0.627</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E235" s="6">
-        <v>1.1675555865241299E-2</v>
+        <v>2.83215908632461E-2</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>1122</v>
+        <v>648</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>905</v>
+        <v>709</v>
       </c>
       <c r="C236" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E236" s="6">
-        <v>1.04385081439234E-2</v>
+        <v>2.7818205476530598E-2</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>906</v>
+        <v>710</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>647</v>
+        <v>21</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>963</v>
+        <v>547</v>
       </c>
       <c r="C237" s="7">
-        <v>0.60599999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E237" s="6">
-        <v>1.0400509768077999E-2</v>
+        <v>2.72815049035274E-2</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>964</v>
+        <v>548</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="C238" s="7">
-        <v>0.46800000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238" s="6">
-        <v>9.8771654616760293E-3</v>
+        <v>2.6886230734250598E-2</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>22</v>
+        <v>986</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>461</v>
+        <v>693</v>
       </c>
       <c r="C239" s="7">
-        <v>0.627</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E239" s="6">
-        <v>9.7858778106325508E-3</v>
+        <v>2.67316184383295E-2</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>462</v>
+        <v>694</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="C240" s="7">
-        <v>0.33900000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E240" s="6">
-        <v>9.1450111500627606E-3</v>
+        <v>2.6256496787488599E-2</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>351</v>
+        <v>629</v>
       </c>
       <c r="C241" s="7">
-        <v>0.49399999999999999</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E241" s="6">
-        <v>9.1054578566266108E-3</v>
+        <v>2.6064861710547699E-2</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>352</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>379</v>
+        <v>671</v>
       </c>
       <c r="C242" s="7">
-        <v>0.55400000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E242" s="6">
-        <v>8.7591800898815606E-3</v>
+        <v>2.5990489816537399E-2</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>380</v>
+        <v>672</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>767</v>
+        <v>277</v>
       </c>
       <c r="C243" s="7">
-        <v>0.55100000000000005</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E243" s="6">
-        <v>8.5324749737207307E-3</v>
+        <v>2.5924977526314799E-2</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>768</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>385</v>
+        <v>631</v>
       </c>
       <c r="C244" s="7">
-        <v>0.34499999999999997</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E244" s="6">
-        <v>7.2528321803903501E-3</v>
+        <v>2.54466656611642E-2</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>386</v>
+        <v>632</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>24</v>
+        <v>733</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1143</v>
+        <v>1031</v>
       </c>
       <c r="C245" s="7">
-        <v>0.504</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E245" s="6">
-        <v>6.2218275061505304E-3</v>
+        <v>2.50639686632162E-2</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>1144</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>64</v>
+        <v>941</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>599</v>
+        <v>879</v>
       </c>
       <c r="C246" s="7">
-        <v>0.54500000000000004</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E246" s="6">
-        <v>6.1274701520971E-3</v>
+        <v>2.4890665525787701E-2</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>600</v>
+        <v>880</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>144</v>
+        <v>409</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1347</v>
+        <v>1011</v>
       </c>
       <c r="C247" s="7">
-        <v>0.55700000000000005</v>
+        <v>0.503</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E247" s="6">
-        <v>6.0975798681185004E-3</v>
+        <v>2.4861442065329101E-2</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>1348</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>91</v>
+        <v>983</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>377</v>
+        <v>1439</v>
       </c>
       <c r="C248" s="7">
-        <v>0.247</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E248" s="6">
-        <v>5.96838536834912E-3</v>
+        <v>2.4677378093376199E-2</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>378</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>300</v>
+        <v>836</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>615</v>
+        <v>763</v>
       </c>
       <c r="C249" s="7">
-        <v>0.42599999999999999</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E249" s="6">
-        <v>5.2645554600032401E-3</v>
+        <v>2.4228925974379801E-2</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>616</v>
+        <v>764</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="C250" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E250" s="6">
-        <v>5.0226122662913797E-3</v>
+        <v>2.3747034562878098E-2</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>534</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="C251" s="7">
-        <v>0.54100000000000004</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E251" s="6">
-        <v>4.6210803120670203E-3</v>
+        <v>2.3541576821877401E-2</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>322</v>
+        <v>791</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>659</v>
+        <v>1323</v>
       </c>
       <c r="C252" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E252" s="6">
-        <v>4.0298261265008404E-3</v>
+        <v>2.3283938954044701E-2</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>660</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>607</v>
+        <v>811</v>
       </c>
       <c r="C253" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E253" s="6">
-        <v>3.9304364247245401E-3</v>
+        <v>2.3109058393658299E-2</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>608</v>
+        <v>812</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="C254" s="7">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E254" s="6">
-        <v>3.7925521897059699E-3</v>
+        <v>2.28581380760501E-2</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>153</v>
+        <v>678</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>869</v>
+        <v>1333</v>
       </c>
       <c r="C255" s="7">
-        <v>0.45100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E255" s="6">
-        <v>3.75587295980543E-3</v>
+        <v>2.27153435214726E-2</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>870</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>785</v>
+        <v>1133</v>
       </c>
       <c r="C256" s="7">
-        <v>0.63300000000000001</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E256" s="6">
-        <v>3.3551449021403498E-3</v>
+        <v>2.2612608490116998E-2</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>786</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>697</v>
+        <v>479</v>
       </c>
       <c r="C257" s="7">
-        <v>0.30299999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E257" s="6">
-        <v>3.1510424503886801E-3</v>
+        <v>2.2016544870961399E-2</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>698</v>
+        <v>480</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>843</v>
+        <v>124</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>21</v>
+        <v>337</v>
       </c>
       <c r="C258" s="7">
-        <v>0.46100000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E258" s="6">
-        <v>1.21383910047555</v>
+        <v>2.19457442725292E-2</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>727</v>
+        <v>287</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>195</v>
+        <v>605</v>
       </c>
       <c r="C259" s="7">
-        <v>0.41799999999999998</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E259" s="6">
-        <v>0.90070294990503397</v>
+        <v>2.1825992579766099E-2</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>196</v>
+        <v>606</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>1153</v>
+        <v>958</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>141</v>
+        <v>1095</v>
       </c>
       <c r="C260" s="7">
-        <v>0.35799999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E260" s="6">
-        <v>0.69749636417844696</v>
+        <v>2.1763644636359599E-2</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>142</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>642</v>
+        <v>459</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>55</v>
+        <v>387</v>
       </c>
       <c r="C261" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E261" s="6">
-        <v>0.640278944907134</v>
+        <v>2.1402636114384699E-2</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>1368</v>
+        <v>278</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="C262" s="7">
-        <v>0.54300000000000004</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E262" s="6">
-        <v>0.51189457095489499</v>
+        <v>2.13940503666257E-2</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>934</v>
+        <v>966</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>1088</v>
+        <v>543</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>145</v>
+        <v>625</v>
       </c>
       <c r="C263" s="7">
-        <v>0.44</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E263" s="6">
-        <v>0.48938529252812102</v>
+        <v>2.1056179952516602E-2</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>146</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>1293</v>
+        <v>636</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>601</v>
+        <v>713</v>
       </c>
       <c r="C264" s="7">
-        <v>0.42799999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E264" s="6">
-        <v>0.44342587034738701</v>
+        <v>2.1020216931627301E-2</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>602</v>
+        <v>714</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>1240</v>
+        <v>206</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
       <c r="C265" s="7">
-        <v>0.501</v>
+        <v>0.625</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E265" s="6">
-        <v>0.41616039722491199</v>
+        <v>2.0864274670760699E-2</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>436</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>105</v>
+        <v>1505</v>
       </c>
       <c r="C266" s="7">
-        <v>0.46400000000000002</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E266" s="6">
-        <v>0.40134139092430199</v>
+        <v>2.0608663427789602E-2</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>106</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="C267" s="7">
-        <v>0.377</v>
+        <v>0.39</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E267" s="6">
-        <v>0.39421639557229299</v>
+        <v>2.0517047266669902E-2</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>1231</v>
+        <v>60</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>155</v>
+        <v>1025</v>
       </c>
       <c r="C268" s="7">
-        <v>0.52400000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E268" s="6">
-        <v>0.37698021009947702</v>
+        <v>2.0471543980187201E-2</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>156</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>753</v>
+        <v>424</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>35</v>
+        <v>863</v>
       </c>
       <c r="C269" s="7">
-        <v>0.505</v>
+        <v>0.47</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E269" s="6">
-        <v>0.37558336673783799</v>
+        <v>2.0461071871340001E-2</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>36</v>
+        <v>864</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>552</v>
+        <v>392</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>225</v>
+        <v>497</v>
       </c>
       <c r="C270" s="7">
-        <v>0.36699999999999999</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E270" s="6">
-        <v>0.37292635232138999</v>
+        <v>2.0335088420082099E-2</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>226</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>1463</v>
+        <v>5</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>1147</v>
+        <v>309</v>
       </c>
       <c r="C271" s="7">
-        <v>0.65700000000000003</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E271" s="6">
-        <v>0.36745148140812001</v>
+        <v>2.0329346568668801E-2</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>1148</v>
+        <v>310</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>1345</v>
+        <v>79</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1149</v>
+        <v>815</v>
       </c>
       <c r="C272" s="7">
-        <v>0.38</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E272" s="6">
-        <v>0.36313389979641802</v>
+        <v>2.0204373427427699E-2</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>1150</v>
+        <v>816</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>25</v>
+        <v>595</v>
       </c>
       <c r="C273" s="7">
-        <v>0.69699999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E273" s="6">
-        <v>0.343937380020304</v>
+        <v>1.9212886859991202E-2</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>26</v>
+        <v>596</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>1125</v>
+        <v>669</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>881</v>
+        <v>1419</v>
       </c>
       <c r="C274" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E274" s="6">
-        <v>0.33647223662121201</v>
+        <v>1.9139340210697402E-2</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>882</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>803</v>
+        <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>133</v>
+        <v>519</v>
       </c>
       <c r="C275" s="7">
-        <v>0.308</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E275" s="6">
-        <v>0.33395175639587699</v>
+        <v>1.9057270410286101E-2</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>134</v>
+        <v>520</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>850</v>
+        <v>9</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>301</v>
+        <v>923</v>
       </c>
       <c r="C276" s="7">
-        <v>0.47499999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E276" s="6">
-        <v>0.33395175639587699</v>
+        <v>1.8837205580381499E-2</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>302</v>
+        <v>924</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>1406</v>
+        <v>901</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>715</v>
+        <v>1513</v>
       </c>
       <c r="C277" s="7">
-        <v>0.56100000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E277" s="6">
-        <v>0.31952267830743902</v>
+        <v>1.8622512098001798E-2</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>716</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="C278" s="7">
-        <v>0.434</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E278" s="6">
-        <v>0.29062882263712198</v>
+        <v>1.8275779938736799E-2</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>1326</v>
+        <v>37</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>925</v>
+        <v>457</v>
       </c>
       <c r="C279" s="7">
         <v>0.436</v>
@@ -29213,1450 +29103,1450 @@
         <v>4</v>
       </c>
       <c r="E279" s="6">
-        <v>0.27860485430066401</v>
+        <v>1.8215439891341102E-2</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>926</v>
+        <v>458</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>736</v>
+        <v>438</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>193</v>
+        <v>985</v>
       </c>
       <c r="C280" s="7">
-        <v>0.47499999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E280" s="6">
-        <v>0.251314428280906</v>
+        <v>1.8193345961205701E-2</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>194</v>
+        <v>986</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="C281" s="7">
-        <v>0.54300000000000004</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E281" s="6">
-        <v>0.24362208265775001</v>
+        <v>1.7746694681335301E-2</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>1032</v>
+        <v>239</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="C282" s="7">
-        <v>0.48299999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E282" s="6">
-        <v>0.24287879543594201</v>
+        <v>1.7685664346275502E-2</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>1320</v>
+        <v>240</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>707</v>
+        <v>573</v>
       </c>
       <c r="C283" s="7">
-        <v>0.623</v>
+        <v>0.432</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E283" s="6">
-        <v>0.239229689065834</v>
+        <v>1.6981540148094099E-2</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>708</v>
+        <v>574</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>187</v>
+        <v>913</v>
       </c>
       <c r="C284" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E284" s="6">
-        <v>0.23697938397356</v>
+        <v>1.6854331554982099E-2</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>188</v>
+        <v>914</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>296</v>
+        <v>658</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>83</v>
+        <v>839</v>
       </c>
       <c r="C285" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E285" s="6">
-        <v>0.23670108287626199</v>
+        <v>1.6611677666896099E-2</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>84</v>
+        <v>840</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>1444</v>
+        <v>116</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>893</v>
+        <v>701</v>
       </c>
       <c r="C286" s="7">
-        <v>0.52800000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E286" s="6">
-        <v>0.23499359123170499</v>
+        <v>1.64327232515676E-2</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>894</v>
+        <v>702</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>741</v>
+        <v>51</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>1107</v>
+        <v>1043</v>
       </c>
       <c r="C287" s="7">
-        <v>0.33900000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E287" s="6">
-        <v>0.209091797858559</v>
+        <v>1.63938097756764E-2</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C288" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E288" s="6">
-        <v>0.20806843787404</v>
+        <v>1.5853775772177201E-2</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>568</v>
+        <v>165</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>61</v>
+        <v>737</v>
       </c>
       <c r="C289" s="7">
-        <v>0.40799999999999997</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E289" s="6">
-        <v>0.199665670251927</v>
+        <v>1.57918796978916E-2</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>62</v>
+        <v>738</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>1312</v>
+        <v>59</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>975</v>
+        <v>1051</v>
       </c>
       <c r="C290" s="7">
-        <v>0.58099999999999996</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E290" s="6">
-        <v>0.18746295629437301</v>
+        <v>1.57918796978916E-2</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>976</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>871</v>
+        <v>139</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="C291" s="7">
-        <v>0.314</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E291" s="6">
-        <v>0.17693070815907799</v>
+        <v>1.5487677691351299E-2</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>426</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>715</v>
+        <v>301</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>269</v>
+        <v>1037</v>
       </c>
       <c r="C292" s="7">
-        <v>0.38500000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E292" s="6">
-        <v>0.16362942378180201</v>
+        <v>1.44667984177533E-2</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>270</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>131</v>
+        <v>903</v>
       </c>
       <c r="C293" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E293" s="6">
-        <v>0.16143214434637199</v>
+        <v>1.4440684154794299E-2</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>132</v>
+        <v>904</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>231</v>
+        <v>1405</v>
       </c>
       <c r="C294" s="7">
-        <v>0.373</v>
+        <v>0.314</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E294" s="6">
-        <v>0.15963014559188299</v>
+        <v>1.43732262413717E-2</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>232</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>773</v>
+        <v>363</v>
       </c>
       <c r="C295" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.433</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E295" s="6">
-        <v>0.15535044001916201</v>
+        <v>1.42317392572563E-2</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>774</v>
+        <v>364</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="C296" s="7">
-        <v>0.44800000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E296" s="6">
-        <v>0.14935692774322101</v>
+        <v>1.41345109349047E-2</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>815</v>
+        <v>303</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>409</v>
+        <v>843</v>
       </c>
       <c r="C297" s="7">
-        <v>0.42499999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E297" s="6">
-        <v>0.13825661970102501</v>
+        <v>1.3240842236997501E-2</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>410</v>
+        <v>844</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>1136</v>
+        <v>137</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>949</v>
+        <v>649</v>
       </c>
       <c r="C298" s="7">
-        <v>0.61099999999999999</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E298" s="6">
-        <v>0.13720112151348501</v>
+        <v>1.2527567532662799E-2</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>950</v>
+        <v>650</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>428</v>
+        <v>227</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>451</v>
+        <v>775</v>
       </c>
       <c r="C299" s="7">
-        <v>0.59399999999999997</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E299" s="6">
-        <v>0.13313574474596801</v>
+        <v>1.23994149050382E-2</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>452</v>
+        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>1087</v>
+        <v>741</v>
       </c>
       <c r="C300" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E300" s="6">
-        <v>0.13254665596198301</v>
+        <v>1.20810892503397E-2</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>1088</v>
+        <v>742</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>818</v>
+        <v>210</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>159</v>
+        <v>895</v>
       </c>
       <c r="C301" s="7">
-        <v>0.39</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E301" s="6">
-        <v>0.12595240897761401</v>
+        <v>1.18698573390292E-2</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>160</v>
+        <v>896</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>224</v>
+        <v>442</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>255</v>
+        <v>1121</v>
       </c>
       <c r="C302" s="7">
-        <v>0.36799999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E302" s="6">
-        <v>0.12435274487954399</v>
+        <v>1.1675555865241299E-2</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>256</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>957</v>
+        <v>613</v>
       </c>
       <c r="C303" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E303" s="6">
-        <v>0.11053338064061299</v>
+        <v>1.1491902668042E-2</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>958</v>
+        <v>614</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>924</v>
+        <v>171</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1141</v>
+        <v>517</v>
       </c>
       <c r="C304" s="7">
-        <v>0.42</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E304" s="6">
-        <v>0.10821358464023199</v>
+        <v>1.11951910924916E-2</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>1142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>125</v>
+        <v>973</v>
       </c>
       <c r="C305" s="7">
-        <v>0.33800000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E305" s="6">
-        <v>0.100904684124298</v>
+        <v>1.0994491398666199E-2</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>126</v>
+        <v>974</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>65</v>
+        <v>1443</v>
       </c>
       <c r="C306" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E306" s="6">
-        <v>9.9460793530637998E-2</v>
+        <v>1.09740470319767E-2</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>66</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>862</v>
+        <v>463</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>1001</v>
+        <v>467</v>
       </c>
       <c r="C307" s="7">
-        <v>0.246</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E307" s="6">
-        <v>9.7937534986705696E-2</v>
+        <v>1.09350460861988E-2</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>1002</v>
+        <v>468</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>229</v>
+        <v>633</v>
       </c>
       <c r="C308" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E308" s="6">
-        <v>9.5324386468671293E-2</v>
+        <v>1.05585213651158E-2</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>230</v>
+        <v>634</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
-        <v>352</v>
+        <v>211</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>1075</v>
+        <v>905</v>
       </c>
       <c r="C309" s="7">
-        <v>0.47299999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E309" s="6">
-        <v>9.2874125006443695E-2</v>
+        <v>1.04385081439234E-2</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>1076</v>
+        <v>906</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>10</v>
+        <v>647</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>169</v>
+        <v>963</v>
       </c>
       <c r="C310" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E310" s="6">
-        <v>8.4664593712016095E-2</v>
+        <v>1.0400509768077999E-2</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>170</v>
+        <v>964</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="C311" s="7">
-        <v>0.45100000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E311" s="6">
-        <v>7.8660319772390699E-2</v>
+        <v>9.8771654616760293E-3</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="C312" s="7">
-        <v>0.33300000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E312" s="6">
-        <v>7.70322180463687E-2</v>
+        <v>9.7858778106325508E-3</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>298</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>1033</v>
+        <v>349</v>
       </c>
       <c r="C313" s="7">
-        <v>0.53100000000000003</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E313" s="6">
-        <v>7.6519149834196207E-2</v>
+        <v>9.1450111500627606E-3</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>1034</v>
+        <v>350</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
-        <v>480</v>
+        <v>208</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>749</v>
+        <v>351</v>
       </c>
       <c r="C314" s="7">
-        <v>0.372</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E314" s="6">
-        <v>7.4352980117706302E-2</v>
+        <v>9.1054578566266108E-3</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>750</v>
+        <v>352</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
-        <v>639</v>
+        <v>23</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>1357</v>
+        <v>177</v>
       </c>
       <c r="C315" s="7">
-        <v>0.26600000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E315" s="6">
-        <v>7.4245589989210506E-2</v>
+        <v>9.0928086575990195E-3</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>1358</v>
+        <v>178</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
-        <v>1074</v>
+        <v>215</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>541</v>
+        <v>379</v>
       </c>
       <c r="C316" s="7">
-        <v>0.60399999999999998</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E316" s="6">
-        <v>7.1204446291791595E-2</v>
+        <v>8.7591800898815606E-3</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>542</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>57</v>
+        <v>767</v>
       </c>
       <c r="C317" s="7">
-        <v>0.441</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E317" s="6">
-        <v>6.2988152932350397E-2</v>
+        <v>8.5324749737207307E-3</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>58</v>
+        <v>768</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>630</v>
+        <v>121</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>931</v>
+        <v>539</v>
       </c>
       <c r="C318" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E318" s="6">
-        <v>5.8581901624802299E-2</v>
+        <v>8.4687956530031094E-3</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>932</v>
+        <v>540</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>865</v>
+        <v>367</v>
       </c>
       <c r="C319" s="7">
-        <v>0.30599999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E319" s="6">
-        <v>5.8223660278896597E-2</v>
+        <v>7.8293608004357702E-3</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>866</v>
+        <v>368</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>968</v>
+        <v>33</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>935</v>
+        <v>385</v>
       </c>
       <c r="C320" s="7">
-        <v>0.375</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E320" s="6">
-        <v>5.7903292831558997E-2</v>
+        <v>7.2528321803903501E-3</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>936</v>
+        <v>386</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>73</v>
+        <v>989</v>
       </c>
       <c r="C321" s="7">
-        <v>0.34599999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E321" s="6">
-        <v>5.6441310904951802E-2</v>
+        <v>7.2503489623068204E-3</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>74</v>
+        <v>990</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
-        <v>41</v>
+        <v>1342</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>447</v>
+        <v>1537</v>
       </c>
       <c r="C322" s="7">
-        <v>0.32</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E322" s="6">
-        <v>5.6273635982108598E-2</v>
+        <v>6.9759613207748296E-3</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>448</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>219</v>
+        <v>1185</v>
       </c>
       <c r="C323" s="7">
-        <v>0.443</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E323" s="6">
-        <v>5.4958884280757403E-2</v>
+        <v>6.7603352186382396E-3</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>220</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
-        <v>1095</v>
+        <v>118</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1315</v>
+        <v>835</v>
       </c>
       <c r="C324" s="7">
-        <v>0.35799999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E324" s="6">
-        <v>5.3560323833736802E-2</v>
+        <v>6.7499412541750098E-3</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>1316</v>
+        <v>836</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>617</v>
+        <v>1143</v>
       </c>
       <c r="C325" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E325" s="6">
-        <v>4.9982640867735399E-2</v>
+        <v>6.2218275061505304E-3</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>618</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
-        <v>759</v>
+        <v>64</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>911</v>
+        <v>599</v>
       </c>
       <c r="C326" s="7">
-        <v>0.66300000000000003</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E326" s="6">
-        <v>4.8612244055093699E-2</v>
+        <v>6.1274701520971E-3</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>912</v>
+        <v>600</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
-        <v>773</v>
+        <v>144</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>641</v>
+        <v>1347</v>
       </c>
       <c r="C327" s="7">
-        <v>0.59299999999999997</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E327" s="6">
-        <v>4.70675108579858E-2</v>
+        <v>6.0975798681185004E-3</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>642</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>689</v>
+        <v>70</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>1157</v>
+        <v>891</v>
       </c>
       <c r="C328" s="7">
-        <v>0.46300000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E328" s="6">
-        <v>4.6251017650755601E-2</v>
+        <v>6.0202612502156597E-3</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>1158</v>
+        <v>892</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
-        <v>980</v>
+        <v>91</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>1251</v>
+        <v>377</v>
       </c>
       <c r="C329" s="7">
-        <v>0.73299999999999998</v>
+        <v>0.247</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E329" s="6">
-        <v>4.3485111939738801E-2</v>
+        <v>5.96838536834912E-3</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>1252</v>
+        <v>378</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>1235</v>
+        <v>485</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>1515</v>
+        <v>1487</v>
       </c>
       <c r="C330" s="7">
-        <v>0.44</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E330" s="6">
-        <v>4.0573516447166502E-2</v>
+        <v>5.3149208292896204E-3</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>1516</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
-        <v>992</v>
+        <v>300</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>1205</v>
+        <v>615</v>
       </c>
       <c r="C331" s="7">
-        <v>0.48599999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E331" s="6">
-        <v>3.7006998108696801E-2</v>
+        <v>5.2645554600032401E-3</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>1206</v>
+        <v>616</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>663</v>
+        <v>1183</v>
       </c>
       <c r="C332" s="7">
-        <v>0.28000000000000003</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E332" s="6">
-        <v>3.6783877267414902E-2</v>
+        <v>5.1447058812376899E-3</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>664</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>335</v>
+        <v>639</v>
       </c>
       <c r="C333" s="7">
-        <v>0.35599999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E333" s="6">
-        <v>3.6467121912812102E-2</v>
+        <v>5.1020518838954601E-3</v>
       </c>
       <c r="F333" s="8" t="s">
-        <v>336</v>
+        <v>640</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>129</v>
+        <v>533</v>
       </c>
       <c r="C334" s="7">
-        <v>0.29599999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E334" s="6">
-        <v>3.4565653112280798E-2</v>
+        <v>5.0226122662913797E-3</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>130</v>
+        <v>534</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>513</v>
+        <v>427</v>
       </c>
       <c r="C335" s="7">
-        <v>0.35199999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E335" s="6">
-        <v>3.2938342019369897E-2</v>
+        <v>4.7489107412817099E-3</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>514</v>
+        <v>428</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>655</v>
+        <v>521</v>
       </c>
       <c r="C336" s="7">
-        <v>0.35799999999999998</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E336" s="6">
-        <v>3.0443751414723101E-2</v>
+        <v>4.6210803120670203E-3</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>656</v>
+        <v>522</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
-        <v>1192</v>
+        <v>387</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>1461</v>
+        <v>1055</v>
       </c>
       <c r="C337" s="7">
-        <v>0.48599999999999999</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E337" s="6">
-        <v>3.01833778230985E-2</v>
+        <v>4.18541994270691E-3</v>
       </c>
       <c r="F337" s="8" t="s">
-        <v>1462</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>71</v>
+        <v>681</v>
       </c>
       <c r="C338" s="7">
-        <v>0.48899999999999999</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E338" s="6">
-        <v>2.6886230734250598E-2</v>
+        <v>4.1541237431159698E-3</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>72</v>
+        <v>682</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>277</v>
+        <v>659</v>
       </c>
       <c r="C339" s="7">
-        <v>0.39700000000000002</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E339" s="6">
-        <v>2.5924977526314799E-2</v>
+        <v>4.0298261265008404E-3</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>278</v>
+        <v>660</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>811</v>
+        <v>607</v>
       </c>
       <c r="C340" s="7">
-        <v>0.39700000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E340" s="6">
-        <v>2.3109058393658299E-2</v>
+        <v>3.9304364247245401E-3</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>812</v>
+        <v>608</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C341" s="7">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E341" s="6">
-        <v>2.28581380760501E-2</v>
+        <v>3.7925521897059699E-3</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>479</v>
+        <v>869</v>
       </c>
       <c r="C342" s="7">
-        <v>0.34899999999999998</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E342" s="6">
-        <v>2.2016544870961399E-2</v>
+        <v>3.75587295980543E-3</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>480</v>
+        <v>870</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>337</v>
+        <v>855</v>
       </c>
       <c r="C343" s="7">
-        <v>0.34300000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E343" s="6">
-        <v>2.19457442725292E-2</v>
+        <v>3.4287707173170801E-3</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>338</v>
+        <v>856</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1025</v>
+        <v>921</v>
       </c>
       <c r="C344" s="7">
-        <v>0.38400000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E344" s="6">
-        <v>2.0471543980187201E-2</v>
+        <v>3.40570784698274E-3</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>1026</v>
+        <v>922</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>457</v>
+        <v>785</v>
       </c>
       <c r="C345" s="7">
-        <v>0.436</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E345" s="6">
-        <v>1.8215439891341102E-2</v>
+        <v>3.3551449021403498E-3</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>458</v>
+        <v>786</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>341</v>
+        <v>877</v>
       </c>
       <c r="C346" s="7">
-        <v>0.43</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E346" s="6">
-        <v>1.7685664346275502E-2</v>
+        <v>3.2695795025198099E-3</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>342</v>
+        <v>878</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>1043</v>
+        <v>697</v>
       </c>
       <c r="C347" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E347" s="6">
-        <v>1.63938097756764E-2</v>
+        <v>3.1510424503886801E-3</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>1044</v>
+        <v>698</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>245</v>
+        <v>837</v>
       </c>
       <c r="C348" s="7">
-        <v>0.47499999999999998</v>
+        <v>0.66</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E348" s="6">
-        <v>1.5853775772177201E-2</v>
+        <v>2.78784680143313E-3</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>246</v>
+        <v>838</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>1037</v>
+        <v>1081</v>
       </c>
       <c r="C349" s="7">
-        <v>0.433</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E349" s="6">
-        <v>1.44667984177533E-2</v>
+        <v>1.95131531743519E-3</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>1038</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>741</v>
+        <v>1309</v>
       </c>
       <c r="C350" s="7">
-        <v>0.27100000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E350" s="6">
-        <v>1.20810892503397E-2</v>
+        <v>1.83167007891673E-3</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>742</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>177</v>
+        <v>1383</v>
       </c>
       <c r="C351" s="7">
-        <v>0.40200000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E351" s="6">
-        <v>9.0928086575990195E-3</v>
+        <v>1.6620272243229801E-3</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>178</v>
+        <v>1384</v>
       </c>
     </row>
   </sheetData>
@@ -30701,13 +30591,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ECED60-D5FF-4814-9BA0-2D61DC46704C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C5E6D-A1A4-4629-811E-7482D59A668B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5704,7 +5704,7 @@
     </filterColumn>
     <filterColumn colId="4">
       <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0.3"/>
+        <customFilter operator="greaterThanOrEqual" val="0.2"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -24371,8 +24371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912AA92-8764-4A3E-8065-7F3A5E9C4540}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24764,7 +24764,7 @@
       <c r="F18" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -24785,7 +24785,7 @@
       <c r="F19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -24806,7 +24806,7 @@
       <c r="F20" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -25268,7 +25268,7 @@
       <c r="F42" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -25289,9 +25289,9 @@
       <c r="F43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1031</v>
       </c>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>399</v>
       </c>
@@ -25375,7 +25375,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1140</v>
       </c>
@@ -25396,7 +25396,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>394</v>
       </c>
@@ -25438,7 +25438,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>723</v>
       </c>
@@ -25606,7 +25606,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>652</v>
       </c>
@@ -25627,7 +25627,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>444</v>
       </c>
@@ -25648,7 +25648,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>253</v>
       </c>
@@ -25669,7 +25669,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1223</v>
       </c>
@@ -25690,7 +25690,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1352</v>
       </c>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>375</v>
       </c>
@@ -25753,7 +25753,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>729</v>
       </c>
@@ -25774,7 +25774,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>362</v>
       </c>
@@ -25816,7 +25816,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>777</v>
       </c>
@@ -25837,7 +25837,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>562</v>
       </c>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C5E6D-A1A4-4629-811E-7482D59A668B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B288911-F483-4993-B5C6-BB9CA5E946B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5316,7 +5316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5338,6 +5338,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006666"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5371,7 +5377,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5420,6 +5426,15 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
@@ -5427,7 +5442,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5468,7 +5491,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
+          <bgColor rgb="FF006666"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5653,6 +5676,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5665,7 +5693,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="25" dataDxfId="24" dataCellStyle="Normal">
   <autoFilter ref="A1:G866" xr:uid="{3D54B4E7-8762-4810-A5DE-0B8259341304}">
     <filterColumn colId="3">
       <filters>
@@ -5682,20 +5710,20 @@
     <sortCondition descending="1" ref="E1:E866"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="13" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Output">
   <autoFilter ref="A1:G351" xr:uid="{897C7AA5-23D0-4636-B8BC-E6C0B2676166}">
     <filterColumn colId="3">
       <filters>
@@ -5704,21 +5732,24 @@
     </filterColumn>
     <filterColumn colId="4">
       <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0.2"/>
+        <customFilter operator="greaterThanOrEqual" val="0.1"/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F351">
     <sortCondition descending="1" ref="E1:E351"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="6" dataCellStyle="Output"/>
-    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="5" dataCellStyle="Output"/>
-    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="4" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="3" dataCellStyle="Output"/>
-    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="2" dataCellStyle="Output"/>
-    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="0" dataCellStyle="Output"/>
+    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="7" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="6" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="5" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="4" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="3" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="1" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24254,13 +24285,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24371,8 +24402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912AA92-8764-4A3E-8065-7F3A5E9C4540}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24387,25 +24418,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>1738</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>1733</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>1734</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>1735</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>1736</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>1737</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="21" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -24430,7 +24461,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>809</v>
       </c>
@@ -24451,7 +24482,7 @@
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>946</v>
       </c>
@@ -24472,7 +24503,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1438</v>
       </c>
@@ -24493,7 +24524,7 @@
       </c>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1110</v>
       </c>
@@ -24556,7 +24587,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>846</v>
       </c>
@@ -24577,7 +24608,7 @@
       </c>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>659</v>
       </c>
@@ -24619,7 +24650,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1423</v>
       </c>
@@ -24682,7 +24713,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>752</v>
       </c>
@@ -24703,7 +24734,7 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1296</v>
       </c>
@@ -24745,7 +24776,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1477</v>
       </c>
@@ -24766,7 +24797,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>951</v>
       </c>
@@ -24787,7 +24818,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1376</v>
       </c>
@@ -25249,7 +25280,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>722</v>
       </c>
@@ -25270,7 +25301,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>833</v>
       </c>
@@ -25291,7 +25322,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1031</v>
       </c>
@@ -25310,7 +25341,7 @@
       <c r="F44" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -25354,7 +25385,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>399</v>
       </c>
@@ -25373,7 +25404,7 @@
       <c r="F47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -25396,7 +25427,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>394</v>
       </c>
@@ -25415,7 +25446,7 @@
       <c r="F49" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -25606,7 +25637,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>652</v>
       </c>
@@ -25625,9 +25656,9 @@
       <c r="F59" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>444</v>
       </c>
@@ -25646,9 +25677,9 @@
       <c r="F60" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>253</v>
       </c>
@@ -25667,7 +25698,7 @@
       <c r="F61" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -25690,7 +25721,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1352</v>
       </c>
@@ -25709,7 +25740,7 @@
       <c r="F63" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -25753,7 +25784,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>729</v>
       </c>
@@ -25772,9 +25803,9 @@
       <c r="F66" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>362</v>
       </c>
@@ -25793,7 +25824,7 @@
       <c r="F67" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -25879,7 +25910,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>767</v>
       </c>
@@ -25900,7 +25931,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>418</v>
       </c>
@@ -25921,7 +25952,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>337</v>
       </c>
@@ -25942,7 +25973,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>900</v>
       </c>
@@ -25984,7 +26015,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>792</v>
       </c>
@@ -26026,7 +26057,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1466</v>
       </c>
@@ -26047,7 +26078,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>221</v>
       </c>
@@ -26089,7 +26120,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1197</v>
       </c>
@@ -26110,7 +26141,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>127</v>
       </c>
@@ -26131,7 +26162,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>560</v>
       </c>
@@ -26152,7 +26183,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>963</v>
       </c>
@@ -26194,7 +26225,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>1048</v>
       </c>
@@ -26257,7 +26288,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>222</v>
       </c>
@@ -26299,7 +26330,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1265</v>
       </c>
@@ -26341,7 +26372,7 @@
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>351</v>
       </c>
@@ -26530,7 +26561,7 @@
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>1504</v>
       </c>
@@ -26551,7 +26582,7 @@
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>894</v>
       </c>
@@ -26593,7 +26624,7 @@
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>743</v>
       </c>
@@ -26635,7 +26666,7 @@
       </c>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>159</v>
       </c>
@@ -26656,7 +26687,7 @@
       </c>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>845</v>
       </c>
@@ -26677,7 +26708,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>393</v>
       </c>
@@ -26719,7 +26750,7 @@
       </c>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>417</v>
       </c>
@@ -31801,13 +31832,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B288911-F483-4993-B5C6-BB9CA5E946B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E75B11-14AC-4DD9-818B-FA5B1C4D2495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5442,15 +5442,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5693,7 +5685,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="25" dataDxfId="24" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Normal">
   <autoFilter ref="A1:G866" xr:uid="{3D54B4E7-8762-4810-A5DE-0B8259341304}">
     <filterColumn colId="3">
       <filters>
@@ -5710,20 +5702,20 @@
     <sortCondition descending="1" ref="E1:E866"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="12" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Output">
   <autoFilter ref="A1:G351" xr:uid="{897C7AA5-23D0-4636-B8BC-E6C0B2676166}">
     <filterColumn colId="3">
       <filters>
@@ -5735,21 +5727,18 @@
         <customFilter operator="greaterThanOrEqual" val="0.1"/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="6">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F351">
     <sortCondition descending="1" ref="E1:E351"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="7" dataCellStyle="Output"/>
-    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="6" dataCellStyle="Output"/>
-    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="5" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="4" dataCellStyle="Output"/>
-    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="3" dataCellStyle="Output"/>
-    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="1" dataCellStyle="Output"/>
+    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="6" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="5" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="4" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="3" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="2" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="0" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24285,13 +24274,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24402,8 +24391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912AA92-8764-4A3E-8065-7F3A5E9C4540}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24461,7 +24450,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>809</v>
       </c>
@@ -24482,7 +24471,7 @@
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>946</v>
       </c>
@@ -24503,7 +24492,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1438</v>
       </c>
@@ -24524,7 +24513,7 @@
       </c>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1110</v>
       </c>
@@ -24587,7 +24576,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>846</v>
       </c>
@@ -24608,7 +24597,7 @@
       </c>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>659</v>
       </c>
@@ -24650,7 +24639,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1423</v>
       </c>
@@ -24713,7 +24702,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>752</v>
       </c>
@@ -24734,7 +24723,7 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1296</v>
       </c>
@@ -24776,7 +24765,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1477</v>
       </c>
@@ -24797,7 +24786,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>951</v>
       </c>
@@ -24818,7 +24807,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1376</v>
       </c>
@@ -25280,7 +25269,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>722</v>
       </c>
@@ -25301,7 +25290,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>833</v>
       </c>
@@ -25322,7 +25311,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1031</v>
       </c>
@@ -25385,7 +25374,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>399</v>
       </c>
@@ -25427,7 +25416,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>394</v>
       </c>
@@ -25637,7 +25626,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>652</v>
       </c>
@@ -25658,7 +25647,7 @@
       </c>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>444</v>
       </c>
@@ -25679,7 +25668,7 @@
       </c>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>253</v>
       </c>
@@ -25721,7 +25710,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1352</v>
       </c>
@@ -25784,7 +25773,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>729</v>
       </c>
@@ -25805,7 +25794,7 @@
       </c>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>362</v>
       </c>
@@ -25887,7 +25876,7 @@
       <c r="F70" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -25929,7 +25918,7 @@
       <c r="F72" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -25950,7 +25939,7 @@
       <c r="F73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -25971,7 +25960,7 @@
       <c r="F74" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -26034,7 +26023,7 @@
       <c r="F77" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="G77" s="3"/>
+      <c r="G77" s="19"/>
     </row>
     <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
@@ -26076,7 +26065,7 @@
       <c r="F79" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="G79" s="3"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
@@ -31832,13 +31821,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E75B11-14AC-4DD9-818B-FA5B1C4D2495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D98DE-6EB3-4BE7-A29B-22A03BB4EE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -24391,8 +24391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912AA92-8764-4A3E-8065-7F3A5E9C4540}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26086,7 +26086,7 @@
       <c r="F80" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="3"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -26128,7 +26128,7 @@
       <c r="F82" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="G82" s="3"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CD114-760C-4AC2-AD49-CD363DE62763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E52677-2796-47EB-A885-50E670D4081A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5255,7 +5255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5315,8 +5315,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5346,6 +5353,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5371,11 +5383,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5410,7 +5423,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5435,9 +5447,11 @@
     <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
@@ -6008,7 +6022,7 @@
   <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,26 +6036,26 @@
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>1738</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1733</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1734</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>1735</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>1736</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>1737</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>1739</v>
       </c>
     </row>
@@ -10348,7 +10362,7 @@
       <c r="F206" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G206" s="14"/>
+      <c r="G206" s="22"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
@@ -10369,7 +10383,7 @@
       <c r="F207" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G207" s="13"/>
+      <c r="G207" s="22"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
@@ -10390,7 +10404,7 @@
       <c r="F208" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G208" s="14"/>
+      <c r="G208" s="22"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
@@ -10411,7 +10425,7 @@
       <c r="F209" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G209" s="13"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
@@ -10432,7 +10446,7 @@
       <c r="F210" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G210" s="13"/>
+      <c r="G210" s="22"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
@@ -24398,26 +24412,26 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>1738</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1733</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1734</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1735</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>1736</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>1737</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -24461,7 +24475,7 @@
       <c r="F3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -24482,7 +24496,7 @@
       <c r="F4" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -24503,7 +24517,7 @@
       <c r="F5" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -24524,7 +24538,7 @@
       <c r="F6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -24587,7 +24601,7 @@
       <c r="F9" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -24608,7 +24622,7 @@
       <c r="F10" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -24650,7 +24664,7 @@
       <c r="F12" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -24713,7 +24727,7 @@
       <c r="F15" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -24734,7 +24748,7 @@
       <c r="F16" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -24776,7 +24790,7 @@
       <c r="F18" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -24797,7 +24811,7 @@
       <c r="F19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -24818,7 +24832,7 @@
       <c r="F20" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -25280,7 +25294,7 @@
       <c r="F42" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -25301,7 +25315,7 @@
       <c r="F43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -25322,7 +25336,7 @@
       <c r="F44" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="G44" s="19"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -25385,7 +25399,7 @@
       <c r="F47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="19"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -25427,7 +25441,7 @@
       <c r="F49" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -25637,7 +25651,7 @@
       <c r="F59" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -25658,7 +25672,7 @@
       <c r="F60" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
@@ -25679,7 +25693,7 @@
       <c r="F61" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -25721,7 +25735,7 @@
       <c r="F63" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -25784,7 +25798,7 @@
       <c r="F66" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -25805,7 +25819,7 @@
       <c r="F67" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G67" s="19"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -25868,7 +25882,7 @@
       <c r="F70" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="19"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -25910,7 +25924,7 @@
       <c r="F72" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="G72" s="19"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -25931,7 +25945,7 @@
       <c r="F73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="19"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -25952,7 +25966,7 @@
       <c r="F74" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="G74" s="19"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -26015,7 +26029,7 @@
       <c r="F77" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="G77" s="19"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
@@ -26057,7 +26071,7 @@
       <c r="F79" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
@@ -26078,7 +26092,7 @@
       <c r="F80" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="19"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -26120,7 +26134,7 @@
       <c r="F82" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="G82" s="19"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E52677-2796-47EB-A885-50E670D4081A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7587FF-725C-4411-8E75-5B2B93C9049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7587FF-725C-4411-8E75-5B2B93C9049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05575B5-6C99-40E4-AA6F-AC8E0962BE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5703,7 +5703,6 @@
   <autoFilter ref="A1:G866" xr:uid="{3D54B4E7-8762-4810-A5DE-0B8259341304}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Hard"/>
         <filter val="Medium"/>
       </filters>
     </filterColumn>
@@ -6022,7 +6021,7 @@
   <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H210" sqref="H210"/>
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10364,7 +10363,7 @@
       </c>
       <c r="G206" s="22"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
         <v>683</v>
       </c>
@@ -10427,7 +10426,7 @@
       </c>
       <c r="G209" s="22"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>308</v>
       </c>
@@ -10467,9 +10466,9 @@
       <c r="F211" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G211" s="13"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="22"/>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>843</v>
       </c>
@@ -10488,7 +10487,7 @@
       <c r="F212" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G212" s="13"/>
+      <c r="G212" s="22"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
@@ -10509,9 +10508,9 @@
       <c r="F213" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G213" s="13"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="22"/>
+    </row>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <v>489</v>
       </c>
@@ -10530,7 +10529,7 @@
       <c r="F214" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G214" s="13"/>
+      <c r="G214" s="22"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
@@ -10551,9 +10550,9 @@
       <c r="F215" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G215" s="13"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G215" s="22"/>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>975</v>
       </c>
@@ -10593,9 +10592,9 @@
       <c r="F217" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G217" s="13"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="22"/>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>753</v>
       </c>
@@ -10656,7 +10655,7 @@
       <c r="F220" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G220" s="13"/>
+      <c r="G220" s="22"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
@@ -10677,7 +10676,7 @@
       <c r="F221" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G221" s="13"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
@@ -10784,7 +10783,7 @@
       </c>
       <c r="G226" s="13"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>642</v>
       </c>
@@ -10805,7 +10804,7 @@
       </c>
       <c r="G227" s="13"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>340</v>
       </c>
@@ -10847,7 +10846,7 @@
       </c>
       <c r="G229" s="13"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>568</v>
       </c>
@@ -10889,7 +10888,7 @@
       </c>
       <c r="G231" s="13"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
         <v>410</v>
       </c>
@@ -10910,7 +10909,7 @@
       </c>
       <c r="G232" s="13"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>857</v>
       </c>
@@ -10952,7 +10951,7 @@
       </c>
       <c r="G234" s="13"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>42</v>
       </c>
@@ -10973,7 +10972,7 @@
       </c>
       <c r="G235" s="13"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>218</v>
       </c>
@@ -10994,7 +10993,7 @@
       </c>
       <c r="G236" s="13"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>248</v>
       </c>
@@ -11078,7 +11077,7 @@
       </c>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>296</v>
       </c>
@@ -11099,7 +11098,7 @@
       </c>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>774</v>
       </c>
@@ -11162,7 +11161,7 @@
       </c>
       <c r="G244" s="13"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>425</v>
       </c>
@@ -11204,7 +11203,7 @@
       </c>
       <c r="G246" s="13"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
         <v>471</v>
       </c>
@@ -11225,7 +11224,7 @@
       </c>
       <c r="G247" s="13"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>679</v>
       </c>
@@ -11288,7 +11287,7 @@
       </c>
       <c r="G250" s="13"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>149</v>
       </c>
@@ -11309,7 +11308,7 @@
       </c>
       <c r="G251" s="13"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>305</v>
       </c>
@@ -11351,7 +11350,7 @@
       </c>
       <c r="G253" s="13"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
         <v>1096</v>
       </c>
@@ -11414,7 +11413,7 @@
       </c>
       <c r="G256" s="13"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>158</v>
       </c>
@@ -11435,7 +11434,7 @@
       </c>
       <c r="G257" s="13"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>465</v>
       </c>
@@ -11456,7 +11455,7 @@
       </c>
       <c r="G258" s="13"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>4</v>
       </c>
@@ -11477,7 +11476,7 @@
       </c>
       <c r="G259" s="13"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>68</v>
       </c>
@@ -11498,7 +11497,7 @@
       </c>
       <c r="G260" s="13"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>803</v>
       </c>
@@ -11561,7 +11560,7 @@
       </c>
       <c r="G263" s="13"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>317</v>
       </c>
@@ -11582,7 +11581,7 @@
       </c>
       <c r="G264" s="13"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
         <v>1153</v>
       </c>
@@ -11624,7 +11623,7 @@
       </c>
       <c r="G266" s="13"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>1088</v>
       </c>
@@ -11687,7 +11686,7 @@
       </c>
       <c r="G269" s="13"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>315</v>
       </c>
@@ -11708,7 +11707,7 @@
       </c>
       <c r="G270" s="13"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>1231</v>
       </c>
@@ -11750,7 +11749,7 @@
       </c>
       <c r="G272" s="13"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
         <v>818</v>
       </c>
@@ -11813,7 +11812,7 @@
       </c>
       <c r="G275" s="13"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9">
         <v>1168</v>
       </c>
@@ -11855,7 +11854,7 @@
       </c>
       <c r="G277" s="13"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>10</v>
       </c>
@@ -11939,7 +11938,7 @@
       </c>
       <c r="G281" s="13"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
         <v>23</v>
       </c>
@@ -11981,7 +11980,7 @@
       </c>
       <c r="G283" s="13"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
         <v>329</v>
       </c>
@@ -12023,7 +12022,7 @@
       </c>
       <c r="G285" s="13"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9">
         <v>57</v>
       </c>
@@ -12044,7 +12043,7 @@
       </c>
       <c r="G286" s="13"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9">
         <v>85</v>
       </c>
@@ -12086,7 +12085,7 @@
       </c>
       <c r="G288" s="13"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9">
         <v>736</v>
       </c>
@@ -12107,7 +12106,7 @@
       </c>
       <c r="G289" s="13"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9">
         <v>727</v>
       </c>
@@ -12149,7 +12148,7 @@
       </c>
       <c r="G291" s="13"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9">
         <v>527</v>
       </c>
@@ -12296,7 +12295,7 @@
       </c>
       <c r="G298" s="13"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9">
         <v>295</v>
       </c>
@@ -12338,7 +12337,7 @@
       </c>
       <c r="G300" s="13"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9">
         <v>913</v>
       </c>
@@ -12359,7 +12358,7 @@
       </c>
       <c r="G301" s="13"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9">
         <v>552</v>
       </c>
@@ -12401,7 +12400,7 @@
       </c>
       <c r="G303" s="13"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9">
         <v>76</v>
       </c>
@@ -12422,7 +12421,7 @@
       </c>
       <c r="G304" s="13"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9">
         <v>363</v>
       </c>
@@ -12548,7 +12547,7 @@
       </c>
       <c r="G310" s="13"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9">
         <v>297</v>
       </c>
@@ -12632,7 +12631,7 @@
       </c>
       <c r="G314" s="13"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9">
         <v>224</v>
       </c>
@@ -12758,7 +12757,7 @@
       </c>
       <c r="G320" s="13"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9">
         <v>715</v>
       </c>
@@ -12842,7 +12841,7 @@
       </c>
       <c r="G324" s="13"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9">
         <v>403</v>
       </c>
@@ -12863,7 +12862,7 @@
       </c>
       <c r="G325" s="13"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9">
         <v>135</v>
       </c>
@@ -13010,7 +13009,7 @@
       </c>
       <c r="G332" s="13"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9">
         <v>269</v>
       </c>
@@ -13052,7 +13051,7 @@
       </c>
       <c r="G334" s="13"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9">
         <v>850</v>
       </c>
@@ -13073,7 +13072,7 @@
       </c>
       <c r="G335" s="13"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9">
         <v>128</v>
       </c>
@@ -13178,7 +13177,7 @@
       </c>
       <c r="G340" s="13"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9">
         <v>391</v>
       </c>
@@ -13283,7 +13282,7 @@
       </c>
       <c r="G345" s="13"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
         <v>72</v>
       </c>
@@ -13367,7 +13366,7 @@
       </c>
       <c r="G349" s="13"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
         <v>354</v>
       </c>
@@ -13388,7 +13387,7 @@
       </c>
       <c r="G350" s="13"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
         <v>124</v>
       </c>
@@ -13430,7 +13429,7 @@
       </c>
       <c r="G352" s="13"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9">
         <v>239</v>
       </c>
@@ -13451,7 +13450,7 @@
       </c>
       <c r="G353" s="13"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
         <v>943</v>
       </c>
@@ -13556,7 +13555,7 @@
       </c>
       <c r="G358" s="13"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9">
         <v>745</v>
       </c>
@@ -13703,7 +13702,7 @@
       </c>
       <c r="G365" s="13"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9">
         <v>336</v>
       </c>
@@ -13850,7 +13849,7 @@
       </c>
       <c r="G372" s="13"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9">
         <v>1032</v>
       </c>
@@ -13892,7 +13891,7 @@
       </c>
       <c r="G374" s="13"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9">
         <v>44</v>
       </c>
@@ -14039,7 +14038,7 @@
       </c>
       <c r="G381" s="13"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9">
         <v>815</v>
       </c>
@@ -14060,7 +14059,7 @@
       </c>
       <c r="G382" s="13"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9">
         <v>772</v>
       </c>
@@ -14186,7 +14185,7 @@
       </c>
       <c r="G388" s="13"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9">
         <v>871</v>
       </c>
@@ -14207,7 +14206,7 @@
       </c>
       <c r="G389" s="13"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9">
         <v>685</v>
       </c>
@@ -14249,7 +14248,7 @@
       </c>
       <c r="G391" s="13"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9">
         <v>1240</v>
       </c>
@@ -14270,7 +14269,7 @@
       </c>
       <c r="G392" s="13"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9">
         <v>407</v>
       </c>
@@ -14291,7 +14290,7 @@
       </c>
       <c r="G393" s="13"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9">
         <v>411</v>
       </c>
@@ -14354,7 +14353,7 @@
       </c>
       <c r="G396" s="13"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9">
         <v>41</v>
       </c>
@@ -14396,7 +14395,7 @@
       </c>
       <c r="G398" s="13"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9">
         <v>428</v>
       </c>
@@ -14459,7 +14458,7 @@
       </c>
       <c r="G401" s="13"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9">
         <v>37</v>
       </c>
@@ -14606,7 +14605,7 @@
       </c>
       <c r="G408" s="13"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9">
         <v>591</v>
       </c>
@@ -14648,7 +14647,7 @@
       </c>
       <c r="G410" s="13"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9">
         <v>212</v>
       </c>
@@ -14816,7 +14815,7 @@
       </c>
       <c r="G418" s="13"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9">
         <v>302</v>
       </c>
@@ -14858,7 +14857,7 @@
       </c>
       <c r="G420" s="13"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9">
         <v>710</v>
       </c>
@@ -14942,7 +14941,7 @@
       </c>
       <c r="G424" s="13"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9">
         <v>358</v>
       </c>
@@ -14963,7 +14962,7 @@
       </c>
       <c r="G425" s="13"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9">
         <v>84</v>
       </c>
@@ -15068,7 +15067,7 @@
       </c>
       <c r="G430" s="13"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9">
         <v>115</v>
       </c>
@@ -15110,7 +15109,7 @@
       </c>
       <c r="G432" s="13"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9">
         <v>499</v>
       </c>
@@ -15194,7 +15193,7 @@
       </c>
       <c r="G436" s="13"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9">
         <v>1074</v>
       </c>
@@ -15278,7 +15277,7 @@
       </c>
       <c r="G440" s="13"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9">
         <v>126</v>
       </c>
@@ -15383,7 +15382,7 @@
       </c>
       <c r="G445" s="13"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9">
         <v>460</v>
       </c>
@@ -15593,7 +15592,7 @@
       </c>
       <c r="G455" s="13"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9">
         <v>65</v>
       </c>
@@ -15635,7 +15634,7 @@
       </c>
       <c r="G457" s="13"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9">
         <v>327</v>
       </c>
@@ -15677,7 +15676,7 @@
       </c>
       <c r="G459" s="13"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="9">
         <v>1293</v>
       </c>
@@ -15803,7 +15802,7 @@
       </c>
       <c r="G465" s="13"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9">
         <v>282</v>
       </c>
@@ -15950,7 +15949,7 @@
       </c>
       <c r="G472" s="13"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9">
         <v>381</v>
       </c>
@@ -15992,7 +15991,7 @@
       </c>
       <c r="G474" s="13"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="9">
         <v>773</v>
       </c>
@@ -16013,7 +16012,7 @@
       </c>
       <c r="G475" s="13"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9">
         <v>1547</v>
       </c>
@@ -16097,7 +16096,7 @@
       </c>
       <c r="G479" s="13"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9">
         <v>97</v>
       </c>
@@ -16118,7 +16117,7 @@
       </c>
       <c r="G480" s="13"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="9">
         <v>316</v>
       </c>
@@ -16181,7 +16180,7 @@
       </c>
       <c r="G483" s="13"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="9">
         <v>214</v>
       </c>
@@ -16202,7 +16201,7 @@
       </c>
       <c r="G484" s="13"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9">
         <v>188</v>
       </c>
@@ -16412,7 +16411,7 @@
       </c>
       <c r="G494" s="13"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9">
         <v>920</v>
       </c>
@@ -16454,7 +16453,7 @@
       </c>
       <c r="G496" s="13"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9">
         <v>32</v>
       </c>
@@ -16475,7 +16474,7 @@
       </c>
       <c r="G497" s="13"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9">
         <v>660</v>
       </c>
@@ -16601,7 +16600,7 @@
       </c>
       <c r="G503" s="13"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9">
         <v>1284</v>
       </c>
@@ -16622,7 +16621,7 @@
       </c>
       <c r="G504" s="13"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="9">
         <v>1320</v>
       </c>
@@ -16685,7 +16684,7 @@
       </c>
       <c r="G507" s="13"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="9">
         <v>1406</v>
       </c>
@@ -16811,7 +16810,7 @@
       </c>
       <c r="G513" s="13"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="9">
         <v>132</v>
       </c>
@@ -16916,7 +16915,7 @@
       </c>
       <c r="G518" s="13"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9">
         <v>273</v>
       </c>
@@ -17000,7 +16999,7 @@
       </c>
       <c r="G522" s="13"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="9">
         <v>480</v>
       </c>
@@ -17021,7 +17020,7 @@
       </c>
       <c r="G523" s="13"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9">
         <v>140</v>
       </c>
@@ -17063,7 +17062,7 @@
       </c>
       <c r="G525" s="13"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="9">
         <v>770</v>
       </c>
@@ -17189,7 +17188,7 @@
       </c>
       <c r="G531" s="13"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="9">
         <v>335</v>
       </c>
@@ -17273,7 +17272,7 @@
       </c>
       <c r="G535" s="13"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9">
         <v>1121</v>
       </c>
@@ -17378,7 +17377,7 @@
       </c>
       <c r="G540" s="13"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9">
         <v>25</v>
       </c>
@@ -17399,7 +17398,7 @@
       </c>
       <c r="G541" s="13"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9">
         <v>1000</v>
       </c>
@@ -17441,7 +17440,7 @@
       </c>
       <c r="G543" s="13"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9">
         <v>99</v>
       </c>
@@ -17504,7 +17503,7 @@
       </c>
       <c r="G546" s="13"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9">
         <v>732</v>
       </c>
@@ -17546,7 +17545,7 @@
       </c>
       <c r="G548" s="13"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9">
         <v>1036</v>
       </c>
@@ -17777,7 +17776,7 @@
       </c>
       <c r="G559" s="13"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9">
         <v>632</v>
       </c>
@@ -17840,7 +17839,7 @@
       </c>
       <c r="G562" s="13"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9">
         <v>45</v>
       </c>
@@ -17903,7 +17902,7 @@
       </c>
       <c r="G565" s="13"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9">
         <v>432</v>
       </c>
@@ -17924,7 +17923,7 @@
       </c>
       <c r="G566" s="13"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9">
         <v>887</v>
       </c>
@@ -17966,7 +17965,7 @@
       </c>
       <c r="G568" s="13"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9">
         <v>1125</v>
       </c>
@@ -17987,7 +17986,7 @@
       </c>
       <c r="G569" s="13"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9">
         <v>312</v>
       </c>
@@ -18008,7 +18007,7 @@
       </c>
       <c r="G570" s="13"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="9">
         <v>30</v>
       </c>
@@ -18050,7 +18049,7 @@
       </c>
       <c r="G572" s="13"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9">
         <v>1444</v>
       </c>
@@ -18176,7 +18175,7 @@
       </c>
       <c r="G578" s="13"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9">
         <v>265</v>
       </c>
@@ -18197,7 +18196,7 @@
       </c>
       <c r="G579" s="13"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="9">
         <v>759</v>
       </c>
@@ -18302,7 +18301,7 @@
       </c>
       <c r="G584" s="13"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9">
         <v>1326</v>
       </c>
@@ -18365,7 +18364,7 @@
       </c>
       <c r="G587" s="13"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9">
         <v>630</v>
       </c>
@@ -18386,7 +18385,7 @@
       </c>
       <c r="G588" s="13"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="9">
         <v>1368</v>
       </c>
@@ -18407,7 +18406,7 @@
       </c>
       <c r="G589" s="13"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9">
         <v>968</v>
       </c>
@@ -18491,7 +18490,7 @@
       </c>
       <c r="G593" s="13"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9">
         <v>1136</v>
       </c>
@@ -18533,7 +18532,7 @@
       </c>
       <c r="G595" s="13"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9">
         <v>174</v>
       </c>
@@ -18575,7 +18574,7 @@
       </c>
       <c r="G597" s="13"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="9">
         <v>587</v>
       </c>
@@ -18617,7 +18616,7 @@
       </c>
       <c r="G599" s="13"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9">
         <v>864</v>
       </c>
@@ -18659,7 +18658,7 @@
       </c>
       <c r="G601" s="13"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9">
         <v>1312</v>
       </c>
@@ -18806,7 +18805,7 @@
       </c>
       <c r="G608" s="13"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9">
         <v>854</v>
       </c>
@@ -18890,7 +18889,7 @@
       </c>
       <c r="G612" s="13"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9">
         <v>862</v>
       </c>
@@ -18953,7 +18952,7 @@
       </c>
       <c r="G615" s="13"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9">
         <v>440</v>
       </c>
@@ -18974,7 +18973,7 @@
       </c>
       <c r="G616" s="13"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9">
         <v>982</v>
       </c>
@@ -19016,7 +19015,7 @@
       </c>
       <c r="G618" s="13"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="9">
         <v>60</v>
       </c>
@@ -19037,7 +19036,7 @@
       </c>
       <c r="G619" s="13"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="9">
         <v>805</v>
       </c>
@@ -19058,7 +19057,7 @@
       </c>
       <c r="G620" s="13"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="9">
         <v>778</v>
       </c>
@@ -19079,7 +19078,7 @@
       </c>
       <c r="G621" s="13"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9">
         <v>321</v>
       </c>
@@ -19100,7 +19099,7 @@
       </c>
       <c r="G622" s="13"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="9">
         <v>301</v>
       </c>
@@ -19121,7 +19120,7 @@
       </c>
       <c r="G623" s="13"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="9">
         <v>895</v>
       </c>
@@ -19142,7 +19141,7 @@
       </c>
       <c r="G624" s="13"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="9">
         <v>493</v>
       </c>
@@ -19163,7 +19162,7 @@
       </c>
       <c r="G625" s="13"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="9">
         <v>51</v>
       </c>
@@ -19373,7 +19372,7 @@
       </c>
       <c r="G635" s="13"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="9">
         <v>1157</v>
       </c>
@@ -19394,7 +19393,7 @@
       </c>
       <c r="G636" s="13"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="9">
         <v>352</v>
       </c>
@@ -19478,7 +19477,7 @@
       </c>
       <c r="G640" s="13"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="9">
         <v>420</v>
       </c>
@@ -19604,7 +19603,7 @@
       </c>
       <c r="G646" s="13"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="9">
         <v>741</v>
       </c>
@@ -19730,7 +19729,7 @@
       </c>
       <c r="G652" s="13"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="9">
         <v>719</v>
       </c>
@@ -19877,7 +19876,7 @@
       </c>
       <c r="G659" s="13"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="9">
         <v>834</v>
       </c>
@@ -19919,7 +19918,7 @@
       </c>
       <c r="G661" s="13"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="9">
         <v>924</v>
       </c>
@@ -19982,7 +19981,7 @@
       </c>
       <c r="G664" s="13"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="9">
         <v>1463</v>
       </c>
@@ -20003,7 +20002,7 @@
       </c>
       <c r="G665" s="13"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="9">
         <v>1345</v>
       </c>
@@ -20045,7 +20044,7 @@
       </c>
       <c r="G667" s="13"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="9">
         <v>689</v>
       </c>
@@ -20066,7 +20065,7 @@
       </c>
       <c r="G668" s="13"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="9">
         <v>726</v>
       </c>
@@ -20087,7 +20086,7 @@
       </c>
       <c r="G669" s="13"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="9">
         <v>483</v>
       </c>
@@ -20129,7 +20128,7 @@
       </c>
       <c r="G671" s="13"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="9">
         <v>960</v>
       </c>
@@ -20234,7 +20233,7 @@
       </c>
       <c r="G676" s="13"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="9">
         <v>272</v>
       </c>
@@ -20297,7 +20296,7 @@
       </c>
       <c r="G679" s="13"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="9">
         <v>564</v>
       </c>
@@ -20360,7 +20359,7 @@
       </c>
       <c r="G682" s="13"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="9">
         <v>992</v>
       </c>
@@ -20444,7 +20443,7 @@
       </c>
       <c r="G686" s="13"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="9">
         <v>1206</v>
       </c>
@@ -20486,7 +20485,7 @@
       </c>
       <c r="G688" s="13"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="9">
         <v>730</v>
       </c>
@@ -20507,7 +20506,7 @@
       </c>
       <c r="G689" s="13"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="9">
         <v>765</v>
       </c>
@@ -20549,7 +20548,7 @@
       </c>
       <c r="G691" s="13"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="9">
         <v>1203</v>
       </c>
@@ -20696,7 +20695,7 @@
       </c>
       <c r="G698" s="13"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="9">
         <v>980</v>
       </c>
@@ -20717,7 +20716,7 @@
       </c>
       <c r="G699" s="13"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="9">
         <v>185</v>
       </c>
@@ -20759,7 +20758,7 @@
       </c>
       <c r="G701" s="13"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="9">
         <v>87</v>
       </c>
@@ -20843,7 +20842,7 @@
       </c>
       <c r="G705" s="13"/>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="9">
         <v>1044</v>
       </c>
@@ -20864,7 +20863,7 @@
       </c>
       <c r="G706" s="13"/>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="9">
         <v>768</v>
       </c>
@@ -20969,7 +20968,7 @@
       </c>
       <c r="G711" s="13"/>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="9">
         <v>952</v>
       </c>
@@ -21011,7 +21010,7 @@
       </c>
       <c r="G713" s="13"/>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="9">
         <v>145</v>
       </c>
@@ -21053,7 +21052,7 @@
       </c>
       <c r="G715" s="13"/>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="9">
         <v>839</v>
       </c>
@@ -21158,7 +21157,7 @@
       </c>
       <c r="G720" s="13"/>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="9">
         <v>1095</v>
       </c>
@@ -21179,7 +21178,7 @@
       </c>
       <c r="G721" s="13"/>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="9">
         <v>827</v>
       </c>
@@ -21431,7 +21430,7 @@
       </c>
       <c r="G733" s="13"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="9">
         <v>940</v>
       </c>
@@ -21473,7 +21472,7 @@
       </c>
       <c r="G735" s="13"/>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="9">
         <v>330</v>
       </c>
@@ -21515,7 +21514,7 @@
       </c>
       <c r="G737" s="13"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="9">
         <v>639</v>
       </c>
@@ -21599,7 +21598,7 @@
       </c>
       <c r="G741" s="13"/>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="9">
         <v>1483</v>
       </c>
@@ -21662,7 +21661,7 @@
       </c>
       <c r="G744" s="13"/>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="9">
         <v>936</v>
       </c>
@@ -21746,7 +21745,7 @@
       </c>
       <c r="G748" s="13"/>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="9">
         <v>668</v>
       </c>
@@ -21767,7 +21766,7 @@
       </c>
       <c r="G749" s="13"/>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="9">
         <v>123</v>
       </c>
@@ -21935,7 +21934,7 @@
       </c>
       <c r="G757" s="13"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="9">
         <v>780</v>
       </c>
@@ -22187,7 +22186,7 @@
       </c>
       <c r="G769" s="13"/>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="9">
         <v>1192</v>
       </c>
@@ -22355,7 +22354,7 @@
       </c>
       <c r="G777" s="13"/>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="9">
         <v>154</v>
       </c>
@@ -22376,7 +22375,7 @@
       </c>
       <c r="G778" s="13"/>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="9">
         <v>472</v>
       </c>
@@ -22544,7 +22543,7 @@
       </c>
       <c r="G786" s="13"/>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="9">
         <v>1235</v>
       </c>
@@ -23762,7 +23761,7 @@
       </c>
       <c r="G844" s="13"/>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="9">
         <v>514</v>
       </c>
@@ -23783,7 +23782,7 @@
       </c>
       <c r="G845" s="13"/>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="9">
         <v>569</v>
       </c>
@@ -23804,7 +23803,7 @@
       </c>
       <c r="G846" s="13"/>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="9">
         <v>644</v>
       </c>
@@ -23825,7 +23824,7 @@
       </c>
       <c r="G847" s="13"/>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="9">
         <v>656</v>
       </c>
@@ -23846,7 +23845,7 @@
       </c>
       <c r="G848" s="13"/>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="9">
         <v>782</v>
       </c>
@@ -23867,7 +23866,7 @@
       </c>
       <c r="G849" s="13"/>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="9">
         <v>847</v>
       </c>
@@ -23888,7 +23887,7 @@
       </c>
       <c r="G850" s="13"/>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="9">
         <v>879</v>
       </c>
@@ -23909,7 +23908,7 @@
       </c>
       <c r="G851" s="13"/>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="9">
         <v>906</v>
       </c>
@@ -23930,7 +23929,7 @@
       </c>
       <c r="G852" s="13"/>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="9">
         <v>1012</v>
       </c>
@@ -23951,7 +23950,7 @@
       </c>
       <c r="G853" s="13"/>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="9">
         <v>1147</v>
       </c>
@@ -23972,7 +23971,7 @@
       </c>
       <c r="G854" s="13"/>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="9">
         <v>1199</v>
       </c>
@@ -23993,7 +23992,7 @@
       </c>
       <c r="G855" s="13"/>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="9">
         <v>1269</v>
       </c>
@@ -24014,7 +24013,7 @@
       </c>
       <c r="G856" s="13"/>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="9">
         <v>1289</v>
       </c>
@@ -24035,7 +24034,7 @@
       </c>
       <c r="G857" s="13"/>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="9">
         <v>1316</v>
       </c>
@@ -24056,7 +24055,7 @@
       </c>
       <c r="G858" s="13"/>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="9">
         <v>1377</v>
       </c>
@@ -24077,7 +24076,7 @@
       </c>
       <c r="G859" s="13"/>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="9">
         <v>1388</v>
       </c>
@@ -24098,7 +24097,7 @@
       </c>
       <c r="G860" s="13"/>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="9">
         <v>1392</v>
       </c>
@@ -24119,7 +24118,7 @@
       </c>
       <c r="G861" s="13"/>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="9">
         <v>1449</v>
       </c>
@@ -24140,7 +24139,7 @@
       </c>
       <c r="G862" s="13"/>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="9">
         <v>1494</v>
       </c>
@@ -24161,7 +24160,7 @@
       </c>
       <c r="G863" s="13"/>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="9">
         <v>1499</v>
       </c>
@@ -24182,7 +24181,7 @@
       </c>
       <c r="G864" s="13"/>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="9">
         <v>1516</v>
       </c>
@@ -24203,7 +24202,7 @@
       </c>
       <c r="G865" s="13"/>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="9">
         <v>1526</v>
       </c>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05575B5-6C99-40E4-AA6F-AC8E0962BE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854F674-7765-4F30-851A-32470131010D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -6021,7 +6021,7 @@
   <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10697,7 +10697,7 @@
       <c r="F222" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G222" s="13"/>
+      <c r="G222" s="22"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
@@ -10718,7 +10718,7 @@
       <c r="F223" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G223" s="13"/>
+      <c r="G223" s="22"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
@@ -10739,7 +10739,6 @@
       <c r="F224" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
@@ -10760,7 +10759,7 @@
       <c r="F225" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G225" s="13"/>
+      <c r="G225" s="22"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
@@ -10781,7 +10780,7 @@
       <c r="F226" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G226" s="13"/>
+      <c r="G226" s="22"/>
     </row>
     <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
@@ -10886,7 +10885,7 @@
       <c r="F231" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G231" s="13"/>
+      <c r="G231" s="22"/>
     </row>
     <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9">

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854F674-7765-4F30-851A-32470131010D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19ACE3-9322-4E02-9B67-4EEF4A5FD173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -6021,7 +6021,7 @@
   <dimension ref="A1:G866"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10948,7 +10948,7 @@
       <c r="F234" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G234" s="13"/>
+      <c r="G234" s="22"/>
     </row>
     <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
@@ -11032,7 +11032,7 @@
       <c r="F238" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G238" s="13"/>
+      <c r="G238" s="22"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
@@ -11053,7 +11053,7 @@
       <c r="F239" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G239" s="13"/>
+      <c r="G239" s="22"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
@@ -11074,7 +11074,7 @@
       <c r="F240" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G240" s="13"/>
+      <c r="G240" s="22"/>
     </row>
     <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
@@ -11137,7 +11137,7 @@
       <c r="F243" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G243" s="13"/>
+      <c r="G243" s="22"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
@@ -11158,7 +11158,7 @@
       <c r="F244" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G244" s="13"/>
+      <c r="G244" s="22"/>
     </row>
     <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
@@ -11200,7 +11200,7 @@
       <c r="F246" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G246" s="13"/>
+      <c r="G246" s="22"/>
     </row>
     <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
@@ -11263,7 +11263,7 @@
       <c r="F249" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G249" s="13"/>
+      <c r="G249" s="22"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
@@ -11284,7 +11284,7 @@
       <c r="F250" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G250" s="13"/>
+      <c r="G250" s="22"/>
     </row>
     <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
@@ -11347,7 +11347,7 @@
       <c r="F253" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G253" s="13"/>
+      <c r="G253" s="22"/>
     </row>
     <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
@@ -11389,7 +11389,7 @@
       <c r="F255" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G255" s="13"/>
+      <c r="G255" s="22"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="9">

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19ACE3-9322-4E02-9B67-4EEF4A5FD173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78074FF4-B311-4B4C-99FD-FB97612BF6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5458,6 +5458,112 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5539,112 +5645,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <gradientFill degree="180">
           <stop position="0">
@@ -5699,7 +5699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="12" dataDxfId="11" dataCellStyle="Normal">
   <autoFilter ref="A1:G866" xr:uid="{3D54B4E7-8762-4810-A5DE-0B8259341304}">
     <filterColumn colId="3">
       <filters>
@@ -5711,20 +5711,20 @@
     <sortCondition descending="1" ref="E1:E866"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="3" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Output">
   <autoFilter ref="A1:G351" xr:uid="{897C7AA5-23D0-4636-B8BC-E6C0B2676166}">
     <filterColumn colId="3">
       <filters>
@@ -5737,13 +5737,13 @@
     <sortCondition descending="1" ref="E1:E351"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="6" dataCellStyle="Output"/>
-    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="5" dataCellStyle="Output"/>
-    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="4" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="3" dataCellStyle="Output"/>
-    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="2" dataCellStyle="Output"/>
-    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="0" dataCellStyle="Output"/>
+    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="19" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="18" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="17" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="16" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="15" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="13" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6018,10 +6018,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G866"/>
+  <dimension ref="A1:H866"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11410,9 +11410,9 @@
       <c r="F256" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G256" s="13"/>
-    </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G256" s="22"/>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>158</v>
       </c>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="G257" s="13"/>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>465</v>
       </c>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="G258" s="13"/>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>4</v>
       </c>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="G259" s="13"/>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>68</v>
       </c>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="G260" s="13"/>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>803</v>
       </c>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="G261" s="13"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
         <v>1110</v>
       </c>
@@ -11536,9 +11536,9 @@
       <c r="F262" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G262" s="13"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G262" s="22"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>289</v>
       </c>
@@ -11557,9 +11557,9 @@
       <c r="F263" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G263" s="13"/>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G263" s="22"/>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>317</v>
       </c>
@@ -11579,8 +11579,11 @@
         <v>140</v>
       </c>
       <c r="G264" s="13"/>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
         <v>1153</v>
       </c>
@@ -11600,8 +11603,11 @@
         <v>142</v>
       </c>
       <c r="G265" s="13"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>833</v>
       </c>
@@ -11620,9 +11626,9 @@
       <c r="F266" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G266" s="13"/>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G266" s="22"/>
+    </row>
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>1088</v>
       </c>
@@ -11643,7 +11649,7 @@
       </c>
       <c r="G267" s="13"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
         <v>750</v>
       </c>
@@ -11662,9 +11668,9 @@
       <c r="F268" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G268" s="13"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G268" s="22"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>247</v>
       </c>
@@ -11683,9 +11689,9 @@
       <c r="F269" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G269" s="13"/>
-    </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G269" s="22"/>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>315</v>
       </c>
@@ -11706,7 +11712,7 @@
       </c>
       <c r="G270" s="13"/>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>1231</v>
       </c>
@@ -11727,7 +11733,7 @@
       </c>
       <c r="G271" s="13"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>304</v>
       </c>
@@ -11746,7 +11752,7 @@
       <c r="F272" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G272" s="13"/>
+      <c r="G272" s="22"/>
     </row>
     <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
@@ -31825,13 +31831,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78074FF4-B311-4B4C-99FD-FB97612BF6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524ADC6C-24CD-4FE3-976C-5C993122B186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524ADC6C-24CD-4FE3-976C-5C993122B186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C78958-A73C-4657-98F8-68654D284D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -5458,112 +5458,6 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial Unicode MS"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5645,6 +5539,112 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <gradientFill degree="180">
           <stop position="0">
@@ -5699,7 +5699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="12" dataDxfId="11" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8546914-474A-4BD7-99B7-18F91CE3F44E}" name="Table1" displayName="Table1" ref="A1:G866" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Normal">
   <autoFilter ref="A1:G866" xr:uid="{3D54B4E7-8762-4810-A5DE-0B8259341304}">
     <filterColumn colId="3">
       <filters>
@@ -5711,20 +5711,20 @@
     <sortCondition descending="1" ref="E1:E866"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="3" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{B983BE84-A9D6-4C7B-81BF-5B3CB61C29D7}" name="Sr.No" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{0C3DC88F-3F38-43DB-A63E-06274CAC7E06}" name="Name" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8855D6F3-4649-4D50-B6A2-A6D704F79147}" name="Acceptance" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{55E858BB-806B-4492-99D9-57175DF32CA6}" name="Difficulties" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{566D0996-FEB8-4EA2-9B29-DDEA4D123056}" name="Frequency" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{ECA11151-6DC5-48C1-A02C-179EFAD286D3}" name="Url" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{92AC7F21-1749-4A3F-8AA4-52DCEBDDE172}" name="Completion" dataDxfId="12" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E39FBF12-5B7B-42EF-A6E0-530A798589DD}" name="Table2" displayName="Table2" ref="A1:G351" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Output">
   <autoFilter ref="A1:G351" xr:uid="{897C7AA5-23D0-4636-B8BC-E6C0B2676166}">
     <filterColumn colId="3">
       <filters>
@@ -5737,13 +5737,13 @@
     <sortCondition descending="1" ref="E1:E351"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="19" dataCellStyle="Output"/>
-    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="18" dataCellStyle="Output"/>
-    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="17" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="16" dataCellStyle="Output"/>
-    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="15" dataCellStyle="Output"/>
-    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="13" dataCellStyle="Output"/>
+    <tableColumn id="1" xr3:uid="{2713588A-9312-4673-9F46-B2D5C5F62B53}" name="Sr.No" dataDxfId="6" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{F2A8AFF3-3B14-468E-BF4D-223EC442A5CB}" name="Name" dataDxfId="5" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00840467-74ED-408A-8A21-7A7AC34FE4C8}" name="Acceptance" dataDxfId="4" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{3DC90F2A-09E9-43A2-A828-B57740147A62}" name="Difficulties" dataDxfId="3" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{161EE576-6115-47D8-BA6A-0B9B47ECA4BB}" name="Frequency" dataDxfId="2" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{1C8D4220-7DC7-4828-B3B7-B0BF766AF71C}" name="Url" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{FE7ACB30-F6FB-4E3B-803E-8C0DD3F4ACEE}" name="Status" dataDxfId="0" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6020,8 +6020,8 @@
   </sheetPr>
   <dimension ref="A1:H866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H277" sqref="H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11794,7 +11794,7 @@
       <c r="F274" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G274" s="13"/>
+      <c r="G274" s="22"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="9">
@@ -11815,7 +11815,7 @@
       <c r="F275" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G275" s="13"/>
+      <c r="G275" s="22"/>
     </row>
     <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9">
@@ -11857,7 +11857,7 @@
       <c r="F277" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G277" s="13"/>
+      <c r="G277" s="22"/>
     </row>
     <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
@@ -11899,7 +11899,7 @@
       <c r="F279" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G279" s="13"/>
+      <c r="G279" s="22"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="9">
@@ -11920,7 +11920,7 @@
       <c r="F280" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G280" s="13"/>
+      <c r="G280" s="22"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="9">
@@ -31831,13 +31831,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Question/Google.xlsx
+++ b/Question/Google.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C78958-A73C-4657-98F8-68654D284D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE97C1-A332-4D5E-9C4A-38905183B7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -6020,8 +6020,8 @@
   </sheetPr>
   <dimension ref="A1:H866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H277" sqref="H277"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11941,7 +11941,7 @@
       <c r="F281" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G281" s="13"/>
+      <c r="G281" s="22"/>
     </row>
     <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
@@ -11983,7 +11983,7 @@
       <c r="F283" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G283" s="13"/>
+      <c r="G283" s="22"/>
     </row>
     <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
@@ -12025,7 +12025,7 @@
       <c r="F285" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G285" s="13"/>
+      <c r="G285" s="22"/>
     </row>
     <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9">
@@ -12088,7 +12088,7 @@
       <c r="F288" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G288" s="13"/>
+      <c r="G288" s="22"/>
     </row>
     <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9">
@@ -12151,7 +12151,7 @@
       <c r="F291" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G291" s="13"/>
+      <c r="G291" s="22"/>
     </row>
     <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9">
@@ -12193,7 +12193,7 @@
       <c r="F293" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G293" s="13"/>
+      <c r="G293" s="22"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="9">
@@ -12214,7 +12214,7 @@
       <c r="F294" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G294" s="13"/>
+      <c r="G294" s="22"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="9">
@@ -12235,7 +12235,7 @@
       <c r="F295" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G295" s="13"/>
+      <c r="G295" s="22"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="9">
@@ -12256,7 +12256,7 @@
       <c r="F296" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G296" s="13"/>
+      <c r="G296" s="22"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="9">
@@ -12277,7 +12277,7 @@
       <c r="F297" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G297" s="13"/>
+      <c r="G297" s="22"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="9">
@@ -12298,7 +12298,7 @@
       <c r="F298" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G298" s="13"/>
+      <c r="G298" s="22"/>
     </row>
     <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9">
@@ -12340,7 +12340,7 @@
       <c r="F300" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G300" s="13"/>
+      <c r="G300" s="22"/>
     </row>
     <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9">
@@ -12403,7 +12403,7 @@
       <c r="F303" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G303" s="13"/>
+      <c r="G303" s="22"/>
     </row>
     <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9">
@@ -12466,7 +12466,7 @@
       <c r="F306" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G306" s="13"/>
+      <c r="G306" s="22"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="9">
@@ -12487,7 +12487,7 @@
       <c r="F307" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G307" s="13"/>
+      <c r="G307" s="22"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="9">
@@ -12508,7 +12508,7 @@
       <c r="F308" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G308" s="13"/>
+      <c r="G308" s="22"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="9">
@@ -12529,7 +12529,7 @@
       <c r="F309" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="G309" s="13"/>
+      <c r="G309" s="22"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="9">
